--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_14_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_14_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>939795.1560384152</v>
+        <v>935456.1439716771</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22012922.25143359</v>
+        <v>22012922.2514336</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7098937.042053144</v>
+        <v>7098937.042053145</v>
       </c>
     </row>
     <row r="9">
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>48.52732720112808</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>8.619398793447928</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>211.2562336341194</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>279.3891637057369</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>104.8533946561527</v>
       </c>
       <c r="H12" t="n">
-        <v>59.73653548534391</v>
+        <v>59.73653548534411</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>87.09445372222318</v>
+        <v>87.09445372222319</v>
       </c>
       <c r="T12" t="n">
         <v>153.4484244137338</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -1536,19 +1536,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>121.2319576508576</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>74.81658774153732</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.20525872441495</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S13" t="n">
         <v>168.9411860548871</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>157.7765856016803</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I14" t="n">
-        <v>8.619398793447928</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3303768639121</v>
+        <v>225.8433025366416</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>132.655120538544</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
         <v>115.7281862028015</v>
@@ -1703,7 +1703,7 @@
         <v>104.8533946561527</v>
       </c>
       <c r="H15" t="n">
-        <v>59.73653548534391</v>
+        <v>59.73653548534411</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>162.0822169026833</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>146.4727882010617</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H16" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.20525872441496</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.9411860548871</v>
@@ -1821,7 +1821,7 @@
         <v>233.3317950548276</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>361.6083173579131</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>129.8554909721063</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>88.49284952069368</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -1931,7 +1931,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475955</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
         <v>107.8702810193205</v>
@@ -1940,7 +1940,7 @@
         <v>104.8533946561527</v>
       </c>
       <c r="H18" t="n">
-        <v>59.73653548534391</v>
+        <v>59.73653548534411</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>7.749585825715712</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>88.28603573286843</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.20525872441496</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.9411860548871</v>
       </c>
       <c r="T19" t="n">
-        <v>81.98598954475368</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U19" t="n">
         <v>279.9213814272745</v>
@@ -2064,10 +2064,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2083,7 +2083,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>64.08362065385086</v>
       </c>
       <c r="X20" t="n">
-        <v>360.4384044488334</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2253,13 +2253,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H22" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.20525872441496</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>102.8777157998882</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>11.31580562369359</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2323,7 +2323,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>332.6938631693635</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -2332,7 +2332,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>402.6471267764352</v>
+        <v>334.9216993379287</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>87.09445372222319</v>
+        <v>87.09445372222318</v>
       </c>
       <c r="T24" t="n">
         <v>153.4484244137338</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>100.1133247794073</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -2490,13 +2490,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>28.60045767364722</v>
       </c>
       <c r="H25" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.20525872441496</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>233.3317950548276</v>
@@ -2557,16 +2557,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>56.75521701816593</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>347.3234248865094</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>87.09445372222319</v>
+        <v>87.09445372222318</v>
       </c>
       <c r="T27" t="n">
         <v>153.4484244137338</v>
@@ -2715,10 +2715,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>77.27543007981799</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H28" t="n">
         <v>140.1594986563935</v>
       </c>
       <c r="I28" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.20525872441496</v>
+        <v>44.20525872441495</v>
       </c>
       <c r="S28" t="n">
         <v>168.9411860548871</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3317950548276</v>
+        <v>64.82731844438263</v>
       </c>
       <c r="U28" t="n">
         <v>279.9213814272745</v>
@@ -2794,7 +2794,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2803,16 +2803,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>363.4338997358349</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>338.2979173413561</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>87.09445372222319</v>
+        <v>87.09445372222318</v>
       </c>
       <c r="T30" t="n">
         <v>153.4484244137338</v>
@@ -2955,13 +2955,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.6835037092309</v>
@@ -2970,7 +2970,7 @@
         <v>140.1594986563935</v>
       </c>
       <c r="I31" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.20525872441496</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.9411860548871</v>
@@ -3012,13 +3012,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>151.979749960184</v>
       </c>
       <c r="X31" t="n">
-        <v>157.0527077861034</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>347.3234248865094</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>359.5856196468706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>87.09445372222319</v>
+        <v>87.09445372222318</v>
       </c>
       <c r="T33" t="n">
         <v>153.4484244137338</v>
@@ -3204,7 +3204,7 @@
         <v>164.6835037092309</v>
       </c>
       <c r="H34" t="n">
-        <v>97.24874901924386</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>251.1761171830183</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3274,13 +3274,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>211.2562336341194</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>184.8956894128061</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>232.8587387665877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>87.09445372222319</v>
+        <v>87.09445372222318</v>
       </c>
       <c r="T36" t="n">
         <v>153.4484244137338</v>
@@ -3429,16 +3429,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>95.59436889957057</v>
       </c>
       <c r="G37" t="n">
-        <v>128.6613255404754</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>360.3405681390615</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>402.6471267764352</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.8895818401656</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>87.09445372222319</v>
+        <v>87.09445372222318</v>
       </c>
       <c r="T39" t="n">
         <v>153.4484244137338</v>
@@ -3650,7 +3650,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
-        <v>157.8079400398086</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="40">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H40" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44.20525872441496</v>
+        <v>44.20525872441495</v>
       </c>
       <c r="S40" t="n">
-        <v>15.352933476253</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U40" t="n">
         <v>279.9213814272745</v>
@@ -3723,13 +3723,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>250.8523650655459</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>187.1513912212478</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I41" t="n">
-        <v>8.619398793447928</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>189.4188159548987</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.9000023092308</v>
+        <v>138.9000023092311</v>
       </c>
       <c r="C42" t="n">
         <v>132.6551205385437</v>
@@ -3836,7 +3836,7 @@
         <v>104.8533946561527</v>
       </c>
       <c r="H42" t="n">
-        <v>59.73653548534543</v>
+        <v>59.73653548534391</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>87.09445372222319</v>
+        <v>87.09445372222318</v>
       </c>
       <c r="T42" t="n">
         <v>153.4484244137338</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.20525872441496</v>
+        <v>44.20525872441495</v>
       </c>
       <c r="S43" t="n">
         <v>168.9411860548871</v>
@@ -3954,19 +3954,19 @@
         <v>233.3317950548276</v>
       </c>
       <c r="U43" t="n">
-        <v>191.6850511079462</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>15.87274168989793</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>158.0749882412001</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>402.6471267764352</v>
+        <v>347.168897441952</v>
       </c>
       <c r="H44" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.619398793447928</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>132.655120538544</v>
       </c>
       <c r="D45" t="n">
         <v>115.7281862028015</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>87.09445372222319</v>
+        <v>87.09445372222318</v>
       </c>
       <c r="T45" t="n">
         <v>153.4484244137338</v>
@@ -4121,7 +4121,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424977</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
         <v>157.8079400398083</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -4143,19 +4143,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>146.3313587389681</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>88.5406486489756</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>44.20525872441496</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.9411860548871</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4200,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>926.0773322649344</v>
+        <v>454.9489005794917</v>
       </c>
       <c r="C11" t="n">
-        <v>926.0773322649344</v>
+        <v>454.9489005794917</v>
       </c>
       <c r="D11" t="n">
-        <v>926.0773322649344</v>
+        <v>454.9489005794917</v>
       </c>
       <c r="E11" t="n">
-        <v>877.0598300415727</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="F11" t="n">
-        <v>456.0294179952603</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="G11" t="n">
-        <v>49.31514852411359</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="H11" t="n">
-        <v>49.31514852411359</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I11" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J11" t="n">
-        <v>135.553658593597</v>
+        <v>416.0853656505564</v>
       </c>
       <c r="K11" t="n">
-        <v>298.4006618101654</v>
+        <v>578.9323688671249</v>
       </c>
       <c r="L11" t="n">
-        <v>515.371982769831</v>
+        <v>795.9036898267904</v>
       </c>
       <c r="M11" t="n">
-        <v>769.6205054001888</v>
+        <v>1050.152212457148</v>
       </c>
       <c r="N11" t="n">
-        <v>1029.85162732878</v>
+        <v>1310.383334385739</v>
       </c>
       <c r="O11" t="n">
-        <v>1366.316169608896</v>
+        <v>1550.711422731859</v>
       </c>
       <c r="P11" t="n">
-        <v>1868.848647676702</v>
+        <v>1741.852980600561</v>
       </c>
       <c r="Q11" t="n">
-        <v>1992.87803497895</v>
+        <v>1865.882367902809</v>
       </c>
       <c r="R11" t="n">
         <v>2030.43425481942</v>
@@ -5074,19 +5074,19 @@
         <v>1727.657403147892</v>
       </c>
       <c r="U11" t="n">
-        <v>1727.657403147892</v>
+        <v>1470.758032578284</v>
       </c>
       <c r="V11" t="n">
-        <v>1727.657403147892</v>
+        <v>1120.920477914764</v>
       </c>
       <c r="W11" t="n">
-        <v>1727.657403147892</v>
+        <v>737.1601770499331</v>
       </c>
       <c r="X11" t="n">
-        <v>1327.014005316844</v>
+        <v>737.1601770499331</v>
       </c>
       <c r="Y11" t="n">
-        <v>926.0773322649344</v>
+        <v>454.9489005794917</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>687.2060646415979</v>
+        <v>687.2060646415983</v>
       </c>
       <c r="C12" t="n">
-        <v>553.2109933905436</v>
+        <v>553.210993390544</v>
       </c>
       <c r="D12" t="n">
-        <v>436.3138356099362</v>
+        <v>436.3138356099364</v>
       </c>
       <c r="E12" t="n">
-        <v>315.8210196022642</v>
+        <v>315.8210196022644</v>
       </c>
       <c r="F12" t="n">
-        <v>206.8611397847687</v>
+        <v>206.861139784769</v>
       </c>
       <c r="G12" t="n">
-        <v>100.9486199300691</v>
+        <v>100.9486199300693</v>
       </c>
       <c r="H12" t="n">
         <v>40.60868509638841</v>
@@ -5123,25 +5123,25 @@
         <v>349.2317580283648</v>
       </c>
       <c r="K12" t="n">
-        <v>502.1623960378344</v>
+        <v>502.1623960378346</v>
       </c>
       <c r="L12" t="n">
-        <v>675.9276273691755</v>
+        <v>675.9276273691758</v>
       </c>
       <c r="M12" t="n">
-        <v>886.5429879661485</v>
+        <v>886.5429879661488</v>
       </c>
       <c r="N12" t="n">
         <v>1108.568211643436</v>
       </c>
       <c r="O12" t="n">
-        <v>1302.678898104413</v>
+        <v>1302.678898104414</v>
       </c>
       <c r="P12" t="n">
         <v>1450.639945261231</v>
       </c>
       <c r="Q12" t="n">
-        <v>1935.300869346252</v>
+        <v>1935.300869346253</v>
       </c>
       <c r="R12" t="n">
         <v>2030.43425481942</v>
@@ -5153,19 +5153,19 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U12" t="n">
-        <v>1590.181734045099</v>
+        <v>1590.1817340451</v>
       </c>
       <c r="V12" t="n">
-        <v>1376.470207038133</v>
+        <v>1376.470207038134</v>
       </c>
       <c r="W12" t="n">
         <v>1163.237038774462</v>
       </c>
       <c r="X12" t="n">
-        <v>986.9110569133545</v>
+        <v>986.911056913355</v>
       </c>
       <c r="Y12" t="n">
-        <v>827.5090972771845</v>
+        <v>827.509097277185</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>743.7418540946808</v>
+        <v>611.4001389512083</v>
       </c>
       <c r="C13" t="n">
-        <v>572.6484816563973</v>
+        <v>440.3067665129248</v>
       </c>
       <c r="D13" t="n">
-        <v>413.1538369793073</v>
+        <v>280.8121218358348</v>
       </c>
       <c r="E13" t="n">
-        <v>252.2430218476268</v>
+        <v>280.8121218358348</v>
       </c>
       <c r="F13" t="n">
-        <v>129.7864989679727</v>
+        <v>116.1809959464261</v>
       </c>
       <c r="G13" t="n">
-        <v>129.7864989679727</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="H13" t="n">
-        <v>129.7864989679727</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I13" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J13" t="n">
-        <v>52.29045199975553</v>
+        <v>52.29045199975552</v>
       </c>
       <c r="K13" t="n">
-        <v>309.7147646564052</v>
+        <v>103.4345710706911</v>
       </c>
       <c r="L13" t="n">
-        <v>701.2525880677155</v>
+        <v>494.9723944820013</v>
       </c>
       <c r="M13" t="n">
-        <v>903.2226851976779</v>
+        <v>923.0331360730472</v>
       </c>
       <c r="N13" t="n">
-        <v>1319.557877795446</v>
+        <v>1339.368328670815</v>
       </c>
       <c r="O13" t="n">
-        <v>1704.271353674364</v>
+        <v>1724.081804549733</v>
       </c>
       <c r="P13" t="n">
         <v>2017.036691229721</v>
@@ -5229,22 +5229,22 @@
         <v>1815.134815648408</v>
       </c>
       <c r="T13" t="n">
-        <v>1579.446133774845</v>
+        <v>1815.134815648408</v>
       </c>
       <c r="U13" t="n">
-        <v>1296.697263646284</v>
+        <v>1815.134815648408</v>
       </c>
       <c r="V13" t="n">
-        <v>1022.811518585806</v>
+        <v>1541.24907058793</v>
       </c>
       <c r="W13" t="n">
-        <v>743.7418540946808</v>
+        <v>1262.179406096805</v>
       </c>
       <c r="X13" t="n">
-        <v>743.7418540946808</v>
+        <v>1023.835543956488</v>
       </c>
       <c r="Y13" t="n">
-        <v>743.7418540946808</v>
+        <v>799.0998453452527</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>629.7158490569718</v>
+        <v>1149.695300467563</v>
       </c>
       <c r="C14" t="n">
-        <v>629.7158490569718</v>
+        <v>1149.695300467563</v>
       </c>
       <c r="D14" t="n">
-        <v>629.7158490569718</v>
+        <v>745.2313705606232</v>
       </c>
       <c r="E14" t="n">
-        <v>470.345560570426</v>
+        <v>330.8911550775198</v>
       </c>
       <c r="F14" t="n">
-        <v>49.31514852411359</v>
+        <v>330.8911550775198</v>
       </c>
       <c r="G14" t="n">
-        <v>49.31514852411359</v>
+        <v>330.8911550775198</v>
       </c>
       <c r="H14" t="n">
-        <v>49.31514852411359</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I14" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J14" t="n">
-        <v>416.0853656505564</v>
+        <v>462.3294854813261</v>
       </c>
       <c r="K14" t="n">
-        <v>578.9323688671249</v>
+        <v>625.1764886978946</v>
       </c>
       <c r="L14" t="n">
-        <v>795.9036898267904</v>
+        <v>842.1478096575601</v>
       </c>
       <c r="M14" t="n">
-        <v>1050.152212457148</v>
+        <v>1096.396332287918</v>
       </c>
       <c r="N14" t="n">
-        <v>1310.383334385739</v>
+        <v>1356.627454216509</v>
       </c>
       <c r="O14" t="n">
-        <v>1550.711422731859</v>
+        <v>1596.955542562628</v>
       </c>
       <c r="P14" t="n">
-        <v>1741.852980600561</v>
+        <v>1788.097100431331</v>
       </c>
       <c r="Q14" t="n">
-        <v>1865.882367902809</v>
+        <v>1992.87803497895</v>
       </c>
       <c r="R14" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S14" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T14" t="n">
-        <v>2030.43425481942</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="U14" t="n">
-        <v>1773.534884249812</v>
+        <v>1499.532855131082</v>
       </c>
       <c r="V14" t="n">
-        <v>1423.697329586293</v>
+        <v>1149.695300467563</v>
       </c>
       <c r="W14" t="n">
-        <v>1039.937028721461</v>
+        <v>1149.695300467563</v>
       </c>
       <c r="X14" t="n">
-        <v>1039.937028721461</v>
+        <v>1149.695300467563</v>
       </c>
       <c r="Y14" t="n">
-        <v>1039.937028721461</v>
+        <v>1149.695300467563</v>
       </c>
     </row>
     <row r="15">
@@ -5336,19 +5336,19 @@
         <v>687.2060646415983</v>
       </c>
       <c r="C15" t="n">
-        <v>553.2109933905438</v>
+        <v>553.210993390544</v>
       </c>
       <c r="D15" t="n">
-        <v>436.3138356099362</v>
+        <v>436.3138356099364</v>
       </c>
       <c r="E15" t="n">
-        <v>315.8210196022642</v>
+        <v>315.8210196022644</v>
       </c>
       <c r="F15" t="n">
-        <v>206.8611397847688</v>
+        <v>206.861139784769</v>
       </c>
       <c r="G15" t="n">
-        <v>100.9486199300691</v>
+        <v>100.9486199300693</v>
       </c>
       <c r="H15" t="n">
         <v>40.60868509638841</v>
@@ -5360,25 +5360,25 @@
         <v>349.2317580283648</v>
       </c>
       <c r="K15" t="n">
-        <v>851.7642360961713</v>
+        <v>464.5090923956754</v>
       </c>
       <c r="L15" t="n">
-        <v>1025.529467427512</v>
+        <v>638.2743237270165</v>
       </c>
       <c r="M15" t="n">
-        <v>1236.144828024485</v>
+        <v>886.5429879661488</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.170051701773</v>
+        <v>1108.568211643436</v>
       </c>
       <c r="O15" t="n">
-        <v>1652.28073816275</v>
+        <v>1302.678898104414</v>
       </c>
       <c r="P15" t="n">
-        <v>1944.579818741986</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q15" t="n">
-        <v>2023.270585823234</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R15" t="n">
         <v>2030.43425481942</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>341.6785809415527</v>
+        <v>846.4068021013137</v>
       </c>
       <c r="C16" t="n">
-        <v>341.6785809415527</v>
+        <v>675.3134296630302</v>
       </c>
       <c r="D16" t="n">
-        <v>182.1839362644627</v>
+        <v>515.8187849859403</v>
       </c>
       <c r="E16" t="n">
-        <v>182.1839362644627</v>
+        <v>354.9079698542598</v>
       </c>
       <c r="F16" t="n">
-        <v>182.1839362644627</v>
+        <v>206.955658540056</v>
       </c>
       <c r="G16" t="n">
-        <v>182.1839362644627</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="H16" t="n">
         <v>40.60868509638841</v>
@@ -5436,22 +5436,22 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J16" t="n">
-        <v>52.29045199975552</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K16" t="n">
-        <v>218.247643462603</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L16" t="n">
-        <v>609.7854668739133</v>
+        <v>766.2539516990519</v>
       </c>
       <c r="M16" t="n">
-        <v>1037.846208464959</v>
+        <v>1108.983026439427</v>
       </c>
       <c r="N16" t="n">
-        <v>1454.181401062727</v>
+        <v>1193.283917589609</v>
       </c>
       <c r="O16" t="n">
-        <v>1838.894876941645</v>
+        <v>1577.997393468527</v>
       </c>
       <c r="P16" t="n">
         <v>1890.762731023884</v>
@@ -5460,28 +5460,28 @@
         <v>2030.43425481942</v>
       </c>
       <c r="R16" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S16" t="n">
-        <v>1815.134815648408</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="T16" t="n">
-        <v>1579.446133774845</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="U16" t="n">
-        <v>1296.697263646284</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="V16" t="n">
-        <v>1022.811518585806</v>
+        <v>1350.212165203675</v>
       </c>
       <c r="W16" t="n">
-        <v>743.7418540946808</v>
+        <v>1071.142500712549</v>
       </c>
       <c r="X16" t="n">
-        <v>505.3979919543642</v>
+        <v>1071.142500712549</v>
       </c>
       <c r="Y16" t="n">
-        <v>505.3979919543642</v>
+        <v>846.4068021013137</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>40.60868509638841</v>
+        <v>576.2397776014151</v>
       </c>
       <c r="C17" t="n">
-        <v>40.60868509638841</v>
+        <v>576.2397776014151</v>
       </c>
       <c r="D17" t="n">
-        <v>40.60868509638841</v>
+        <v>171.7758476944756</v>
       </c>
       <c r="E17" t="n">
-        <v>40.60868509638841</v>
+        <v>171.7758476944756</v>
       </c>
       <c r="F17" t="n">
         <v>40.60868509638841</v>
@@ -5533,10 +5533,10 @@
         <v>1270.179715674899</v>
       </c>
       <c r="P17" t="n">
-        <v>1490.345556911144</v>
+        <v>1461.321273543602</v>
       </c>
       <c r="Q17" t="n">
-        <v>1992.87803497895</v>
+        <v>1865.882367902809</v>
       </c>
       <c r="R17" t="n">
         <v>2030.43425481942</v>
@@ -5545,22 +5545,22 @@
         <v>1941.047538131851</v>
       </c>
       <c r="T17" t="n">
-        <v>1941.047538131851</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="U17" t="n">
-        <v>1941.047538131851</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="V17" t="n">
-        <v>1591.209983468332</v>
+        <v>1377.819848484372</v>
       </c>
       <c r="W17" t="n">
-        <v>1207.4496826035</v>
+        <v>1377.819848484372</v>
       </c>
       <c r="X17" t="n">
-        <v>806.806284772453</v>
+        <v>977.176450653325</v>
       </c>
       <c r="Y17" t="n">
-        <v>405.869611720543</v>
+        <v>576.2397776014151</v>
       </c>
     </row>
     <row r="18">
@@ -5579,13 +5579,13 @@
         <v>436.3138356099364</v>
       </c>
       <c r="E18" t="n">
-        <v>315.8210196022642</v>
+        <v>315.8210196022644</v>
       </c>
       <c r="F18" t="n">
-        <v>206.8611397847688</v>
+        <v>206.861139784769</v>
       </c>
       <c r="G18" t="n">
-        <v>100.9486199300691</v>
+        <v>100.9486199300693</v>
       </c>
       <c r="H18" t="n">
         <v>40.60868509638841</v>
@@ -5594,28 +5594,28 @@
         <v>56.63600629456043</v>
       </c>
       <c r="J18" t="n">
-        <v>105.5633540537315</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K18" t="n">
-        <v>261.3648657783506</v>
+        <v>502.1623960378346</v>
       </c>
       <c r="L18" t="n">
-        <v>763.8973438461571</v>
+        <v>675.9276273691758</v>
       </c>
       <c r="M18" t="n">
-        <v>974.5127044431301</v>
+        <v>886.5429879661488</v>
       </c>
       <c r="N18" t="n">
-        <v>1196.537928120418</v>
+        <v>1108.568211643436</v>
       </c>
       <c r="O18" t="n">
-        <v>1390.648614581395</v>
+        <v>1302.678898104414</v>
       </c>
       <c r="P18" t="n">
-        <v>1538.609661738212</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q18" t="n">
-        <v>2023.270585823234</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R18" t="n">
         <v>2030.43425481942</v>
@@ -5630,7 +5630,7 @@
         <v>1590.1817340451</v>
       </c>
       <c r="V18" t="n">
-        <v>1376.470207038134</v>
+        <v>1376.470207038133</v>
       </c>
       <c r="W18" t="n">
         <v>1163.237038774462</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.2506646008039</v>
+        <v>137.6143634383926</v>
       </c>
       <c r="C19" t="n">
-        <v>763.2506646008039</v>
+        <v>137.6143634383926</v>
       </c>
       <c r="D19" t="n">
-        <v>763.2506646008039</v>
+        <v>137.6143634383926</v>
       </c>
       <c r="E19" t="n">
-        <v>602.3398494691234</v>
+        <v>129.7864989679727</v>
       </c>
       <c r="F19" t="n">
-        <v>437.7087235797146</v>
+        <v>129.7864989679727</v>
       </c>
       <c r="G19" t="n">
-        <v>271.361750136047</v>
+        <v>129.7864989679727</v>
       </c>
       <c r="H19" t="n">
         <v>129.7864989679727</v>
@@ -5679,46 +5679,46 @@
         <v>309.7147646564052</v>
       </c>
       <c r="L19" t="n">
-        <v>680.922284848381</v>
+        <v>701.2525880677155</v>
       </c>
       <c r="M19" t="n">
-        <v>1108.983026439427</v>
+        <v>784.3469801444758</v>
       </c>
       <c r="N19" t="n">
-        <v>1193.283917589609</v>
+        <v>1200.682172742244</v>
       </c>
       <c r="O19" t="n">
-        <v>1577.997393468527</v>
+        <v>1585.395648621162</v>
       </c>
       <c r="P19" t="n">
-        <v>1890.762731023884</v>
+        <v>1898.160986176519</v>
       </c>
       <c r="Q19" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="R19" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S19" t="n">
-        <v>1815.134815648408</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="T19" t="n">
-        <v>1732.320684795122</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="U19" t="n">
-        <v>1449.571814666562</v>
+        <v>1341.349040135593</v>
       </c>
       <c r="V19" t="n">
-        <v>1175.686069606083</v>
+        <v>1067.463295075115</v>
       </c>
       <c r="W19" t="n">
-        <v>1175.686069606083</v>
+        <v>788.3936305839889</v>
       </c>
       <c r="X19" t="n">
-        <v>1175.686069606083</v>
+        <v>550.0497684436723</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.9503709948483</v>
+        <v>325.314069832437</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>855.1972056900578</v>
+        <v>735.3550849844594</v>
       </c>
       <c r="C20" t="n">
-        <v>445.0726150033279</v>
+        <v>735.3550849844594</v>
       </c>
       <c r="D20" t="n">
-        <v>40.60868509638841</v>
+        <v>330.8911550775198</v>
       </c>
       <c r="E20" t="n">
-        <v>40.60868509638841</v>
+        <v>330.8911550775198</v>
       </c>
       <c r="F20" t="n">
-        <v>40.60868509638841</v>
+        <v>330.8911550775198</v>
       </c>
       <c r="G20" t="n">
-        <v>40.60868509638841</v>
+        <v>330.8911550775198</v>
       </c>
       <c r="H20" t="n">
         <v>40.60868509638841</v>
@@ -5752,22 +5752,22 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J20" t="n">
-        <v>135.553658593597</v>
+        <v>416.0853656505564</v>
       </c>
       <c r="K20" t="n">
-        <v>298.4006618101654</v>
+        <v>578.9323688671249</v>
       </c>
       <c r="L20" t="n">
-        <v>515.371982769831</v>
+        <v>795.9036898267904</v>
       </c>
       <c r="M20" t="n">
-        <v>769.6205054001888</v>
+        <v>1050.152212457148</v>
       </c>
       <c r="N20" t="n">
-        <v>1029.85162732878</v>
+        <v>1310.383334385739</v>
       </c>
       <c r="O20" t="n">
-        <v>1270.179715674899</v>
+        <v>1550.711422731859</v>
       </c>
       <c r="P20" t="n">
         <v>1741.852980600561</v>
@@ -5782,22 +5782,22 @@
         <v>2030.43425481942</v>
       </c>
       <c r="T20" t="n">
-        <v>2030.43425481942</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="U20" t="n">
-        <v>2030.43425481942</v>
+        <v>1560.144749265853</v>
       </c>
       <c r="V20" t="n">
-        <v>2030.43425481942</v>
+        <v>1210.307194602334</v>
       </c>
       <c r="W20" t="n">
-        <v>2030.43425481942</v>
+        <v>1145.576264648949</v>
       </c>
       <c r="X20" t="n">
-        <v>1666.355058406457</v>
+        <v>1145.576264648949</v>
       </c>
       <c r="Y20" t="n">
-        <v>1265.418385354547</v>
+        <v>1145.576264648949</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>40.60868509638841</v>
       </c>
       <c r="I21" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J21" t="n">
-        <v>89.53603285555947</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K21" t="n">
-        <v>395.7633604409268</v>
+        <v>502.1623960378346</v>
       </c>
       <c r="L21" t="n">
-        <v>569.5285917722679</v>
+        <v>675.9276273691758</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.061069840074</v>
+        <v>886.5429879661488</v>
       </c>
       <c r="N21" t="n">
-        <v>1294.086293517362</v>
+        <v>1108.568211643436</v>
       </c>
       <c r="O21" t="n">
-        <v>1796.618771585169</v>
+        <v>1302.678898104414</v>
       </c>
       <c r="P21" t="n">
-        <v>1944.579818741986</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q21" t="n">
-        <v>2023.270585823234</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R21" t="n">
         <v>2030.43425481942</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>838.3138944009254</v>
+        <v>952.2634305481031</v>
       </c>
       <c r="C22" t="n">
-        <v>667.2205219626419</v>
+        <v>781.1700581098196</v>
       </c>
       <c r="D22" t="n">
-        <v>507.7258772855519</v>
+        <v>621.6754134327296</v>
       </c>
       <c r="E22" t="n">
-        <v>346.8150621538714</v>
+        <v>460.764598301049</v>
       </c>
       <c r="F22" t="n">
-        <v>182.1839362644627</v>
+        <v>296.1334724116403</v>
       </c>
       <c r="G22" t="n">
-        <v>182.1839362644627</v>
+        <v>129.7864989679727</v>
       </c>
       <c r="H22" t="n">
-        <v>40.60868509638841</v>
+        <v>129.7864989679727</v>
       </c>
       <c r="I22" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J22" t="n">
-        <v>52.29045199975552</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K22" t="n">
-        <v>309.7147646564052</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L22" t="n">
-        <v>701.2525880677155</v>
+        <v>766.2539516990519</v>
       </c>
       <c r="M22" t="n">
-        <v>784.3469801444758</v>
+        <v>849.3483437758122</v>
       </c>
       <c r="N22" t="n">
         <v>1193.283917589609</v>
@@ -5934,28 +5934,28 @@
         <v>2030.43425481942</v>
       </c>
       <c r="R22" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S22" t="n">
-        <v>1815.134815648408</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="T22" t="n">
-        <v>1815.134815648408</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="U22" t="n">
-        <v>1815.134815648408</v>
+        <v>1747.68538469086</v>
       </c>
       <c r="V22" t="n">
-        <v>1541.24907058793</v>
+        <v>1643.768500044508</v>
       </c>
       <c r="W22" t="n">
-        <v>1262.179406096805</v>
+        <v>1364.698835553383</v>
       </c>
       <c r="X22" t="n">
-        <v>1250.749299406205</v>
+        <v>1364.698835553383</v>
       </c>
       <c r="Y22" t="n">
-        <v>1026.01360079497</v>
+        <v>1139.963136942147</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1635.972125588871</v>
       </c>
       <c r="D23" t="n">
-        <v>1299.917718347089</v>
+        <v>1231.508195681931</v>
       </c>
       <c r="E23" t="n">
-        <v>885.5775028639862</v>
+        <v>817.167980198828</v>
       </c>
       <c r="F23" t="n">
-        <v>464.5470908176737</v>
+        <v>396.1375681525155</v>
       </c>
       <c r="G23" t="n">
         <v>57.83282134652699</v>
@@ -5989,16 +5989,16 @@
         <v>49.12635791880181</v>
       </c>
       <c r="J23" t="n">
-        <v>144.0713314160104</v>
+        <v>470.8471583037395</v>
       </c>
       <c r="K23" t="n">
-        <v>306.9183346325789</v>
+        <v>1004.816009987795</v>
       </c>
       <c r="L23" t="n">
-        <v>523.8896555922444</v>
+        <v>1221.78733094746</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.828334837417</v>
+        <v>1476.035853577818</v>
       </c>
       <c r="N23" t="n">
         <v>1736.266975506409</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1113.089705762268</v>
+        <v>695.7237374640115</v>
       </c>
       <c r="C24" t="n">
-        <v>979.0946345112141</v>
+        <v>561.7286662129573</v>
       </c>
       <c r="D24" t="n">
-        <v>862.1974767306065</v>
+        <v>444.8315084323497</v>
       </c>
       <c r="E24" t="n">
-        <v>741.7046607229345</v>
+        <v>324.3386924246776</v>
       </c>
       <c r="F24" t="n">
-        <v>632.744780905439</v>
+        <v>215.3788126071822</v>
       </c>
       <c r="G24" t="n">
-        <v>526.8322610507394</v>
+        <v>109.4662927524825</v>
       </c>
       <c r="H24" t="n">
-        <v>466.4923262170586</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="I24" t="n">
-        <v>466.4923262170586</v>
+        <v>65.15367911697383</v>
       </c>
       <c r="J24" t="n">
-        <v>515.4196739762297</v>
+        <v>357.7494308507781</v>
       </c>
       <c r="K24" t="n">
-        <v>630.6970083435403</v>
+        <v>473.0267652180888</v>
       </c>
       <c r="L24" t="n">
-        <v>804.4622396748814</v>
+        <v>646.79199654943</v>
       </c>
       <c r="M24" t="n">
-        <v>1412.400918920054</v>
+        <v>895.0606607885613</v>
       </c>
       <c r="N24" t="n">
-        <v>1634.426142597341</v>
+        <v>1117.085884465849</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.502412705838</v>
+        <v>1311.196570926826</v>
       </c>
       <c r="P24" t="n">
-        <v>2370.463459862656</v>
+        <v>1459.157618083644</v>
       </c>
       <c r="Q24" t="n">
-        <v>2449.154226943904</v>
+        <v>1943.818542168665</v>
       </c>
       <c r="R24" t="n">
-        <v>2456.31789594009</v>
+        <v>2038.951927641833</v>
       </c>
       <c r="S24" t="n">
-        <v>2368.343700261077</v>
+        <v>1950.97773196282</v>
       </c>
       <c r="T24" t="n">
-        <v>2213.345291762356</v>
+        <v>1795.979323464099</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.065375165769</v>
+        <v>1598.699406867513</v>
       </c>
       <c r="V24" t="n">
-        <v>1802.353848158803</v>
+        <v>1384.987879860546</v>
       </c>
       <c r="W24" t="n">
-        <v>1589.120679895132</v>
+        <v>1171.754711596875</v>
       </c>
       <c r="X24" t="n">
-        <v>1412.794698034025</v>
+        <v>995.4287297357681</v>
       </c>
       <c r="Y24" t="n">
-        <v>1253.392738397855</v>
+        <v>836.0267700995981</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>706.5459344637994</v>
+        <v>734.1456672407668</v>
       </c>
       <c r="C25" t="n">
-        <v>605.4213639795496</v>
+        <v>563.0522948024833</v>
       </c>
       <c r="D25" t="n">
-        <v>605.4213639795496</v>
+        <v>403.5576501253933</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5105488478691</v>
+        <v>242.6468349937128</v>
       </c>
       <c r="F25" t="n">
-        <v>279.8794229584604</v>
+        <v>78.01570910430405</v>
       </c>
       <c r="G25" t="n">
-        <v>279.8794229584604</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="H25" t="n">
-        <v>138.3041717903861</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="I25" t="n">
         <v>49.12635791880181</v>
@@ -6171,28 +6171,28 @@
         <v>2456.31789594009</v>
       </c>
       <c r="R25" t="n">
-        <v>2411.666119450782</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="S25" t="n">
-        <v>2241.018456769079</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="T25" t="n">
-        <v>2005.329774895515</v>
+        <v>2220.629214066527</v>
       </c>
       <c r="U25" t="n">
-        <v>1722.580904766955</v>
+        <v>1937.880343937967</v>
       </c>
       <c r="V25" t="n">
-        <v>1448.695159706477</v>
+        <v>1663.994598877489</v>
       </c>
       <c r="W25" t="n">
-        <v>1169.625495215351</v>
+        <v>1384.924934386363</v>
       </c>
       <c r="X25" t="n">
-        <v>931.2816330750347</v>
+        <v>1146.581072246046</v>
       </c>
       <c r="Y25" t="n">
-        <v>706.5459344637994</v>
+        <v>921.8453736348112</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>510.9187898642928</v>
+        <v>1294.621576134948</v>
       </c>
       <c r="C26" t="n">
-        <v>453.5902878257413</v>
+        <v>884.4969854482176</v>
       </c>
       <c r="D26" t="n">
-        <v>49.12635791880181</v>
+        <v>884.4969854482176</v>
       </c>
       <c r="E26" t="n">
-        <v>49.12635791880181</v>
+        <v>470.1567699651143</v>
       </c>
       <c r="F26" t="n">
         <v>49.12635791880181</v>
@@ -6226,25 +6226,25 @@
         <v>49.12635791880181</v>
       </c>
       <c r="J26" t="n">
-        <v>470.8471583037395</v>
+        <v>431.6745336207733</v>
       </c>
       <c r="K26" t="n">
-        <v>633.6941615203079</v>
+        <v>594.5215368373418</v>
       </c>
       <c r="L26" t="n">
-        <v>850.6654824799734</v>
+        <v>811.4928577970073</v>
       </c>
       <c r="M26" t="n">
-        <v>1104.914005110331</v>
+        <v>1065.741380427365</v>
       </c>
       <c r="N26" t="n">
-        <v>1365.145127038922</v>
+        <v>1325.972502355956</v>
       </c>
       <c r="O26" t="n">
-        <v>1605.473215385042</v>
+        <v>1566.300590702076</v>
       </c>
       <c r="P26" t="n">
-        <v>1796.614773253744</v>
+        <v>1757.442148570778</v>
       </c>
       <c r="Q26" t="n">
         <v>2291.766009023479</v>
@@ -6262,16 +6262,16 @@
         <v>2456.31789594009</v>
       </c>
       <c r="V26" t="n">
-        <v>2106.480341276571</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="W26" t="n">
-        <v>1722.72004041174</v>
+        <v>2105.486153630485</v>
       </c>
       <c r="X26" t="n">
-        <v>1322.076642580692</v>
+        <v>1704.842755799437</v>
       </c>
       <c r="Y26" t="n">
-        <v>921.1399695287822</v>
+        <v>1704.842755799437</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>49.12635791880181</v>
       </c>
       <c r="I27" t="n">
-        <v>49.12635791880181</v>
+        <v>65.15367911697383</v>
       </c>
       <c r="J27" t="n">
-        <v>98.05370567797287</v>
+        <v>357.7494308507781</v>
       </c>
       <c r="K27" t="n">
-        <v>213.3310400452835</v>
+        <v>473.0267652180888</v>
       </c>
       <c r="L27" t="n">
-        <v>821.2697192904559</v>
+        <v>646.79199654943</v>
       </c>
       <c r="M27" t="n">
-        <v>1031.885079887429</v>
+        <v>857.407357146403</v>
       </c>
       <c r="N27" t="n">
-        <v>1253.910303564717</v>
+        <v>1079.432580823691</v>
       </c>
       <c r="O27" t="n">
-        <v>1448.020990025694</v>
+        <v>1273.543267284668</v>
       </c>
       <c r="P27" t="n">
-        <v>1865.127775087417</v>
+        <v>1459.157618083644</v>
       </c>
       <c r="Q27" t="n">
         <v>1943.818542168665</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>518.8462280697551</v>
+        <v>689.0527701005078</v>
       </c>
       <c r="C28" t="n">
-        <v>518.8462280697551</v>
+        <v>517.9593976622243</v>
       </c>
       <c r="D28" t="n">
-        <v>440.7902380901409</v>
+        <v>517.9593976622243</v>
       </c>
       <c r="E28" t="n">
-        <v>279.8794229584604</v>
+        <v>357.0485825305437</v>
       </c>
       <c r="F28" t="n">
-        <v>279.8794229584604</v>
+        <v>357.0485825305437</v>
       </c>
       <c r="G28" t="n">
-        <v>279.8794229584604</v>
+        <v>190.7016090868761</v>
       </c>
       <c r="H28" t="n">
-        <v>138.3041717903861</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="I28" t="n">
         <v>49.12635791880181</v>
       </c>
       <c r="J28" t="n">
-        <v>125.8094884535055</v>
+        <v>125.8094884535053</v>
       </c>
       <c r="K28" t="n">
-        <v>383.2338011101554</v>
+        <v>383.233801110155</v>
       </c>
       <c r="L28" t="n">
-        <v>774.7716245214656</v>
+        <v>774.7716245214652</v>
       </c>
       <c r="M28" t="n">
         <v>1202.832366112511</v>
@@ -6414,22 +6414,22 @@
         <v>2241.018456769079</v>
       </c>
       <c r="T28" t="n">
-        <v>2005.329774895515</v>
+        <v>2175.536316926268</v>
       </c>
       <c r="U28" t="n">
-        <v>1722.580904766955</v>
+        <v>1892.787446797708</v>
       </c>
       <c r="V28" t="n">
-        <v>1448.695159706477</v>
+        <v>1618.90170173723</v>
       </c>
       <c r="W28" t="n">
-        <v>1169.625495215351</v>
+        <v>1339.832037246104</v>
       </c>
       <c r="X28" t="n">
-        <v>931.2816330750347</v>
+        <v>1101.488175105787</v>
       </c>
       <c r="Y28" t="n">
-        <v>706.5459344637994</v>
+        <v>876.7524764945522</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1645.160043223691</v>
+        <v>1704.381648254029</v>
       </c>
       <c r="C29" t="n">
-        <v>1235.035452536961</v>
+        <v>1704.381648254029</v>
       </c>
       <c r="D29" t="n">
-        <v>830.5715226300213</v>
+        <v>1299.917718347089</v>
       </c>
       <c r="E29" t="n">
-        <v>416.231307146918</v>
+        <v>885.5775028639862</v>
       </c>
       <c r="F29" t="n">
-        <v>49.12635791880181</v>
+        <v>464.5470908176737</v>
       </c>
       <c r="G29" t="n">
-        <v>49.12635791880181</v>
+        <v>57.83282134652699</v>
       </c>
       <c r="H29" t="n">
-        <v>49.12635791880181</v>
+        <v>57.83282134652699</v>
       </c>
       <c r="I29" t="n">
         <v>49.12635791880181</v>
       </c>
       <c r="J29" t="n">
-        <v>184.5569615718445</v>
+        <v>144.0713314160104</v>
       </c>
       <c r="K29" t="n">
-        <v>347.403964788413</v>
+        <v>306.9183346325789</v>
       </c>
       <c r="L29" t="n">
-        <v>564.3752857480785</v>
+        <v>523.8896555922444</v>
       </c>
       <c r="M29" t="n">
-        <v>818.6238083784363</v>
+        <v>1131.828334837417</v>
       </c>
       <c r="N29" t="n">
-        <v>1078.854930307027</v>
+        <v>1392.059456766008</v>
       </c>
       <c r="O29" t="n">
-        <v>1686.7936095522</v>
+        <v>1632.387545112127</v>
       </c>
       <c r="P29" t="n">
-        <v>2294.732288797372</v>
+        <v>1823.52910298083</v>
       </c>
       <c r="Q29" t="n">
-        <v>2418.76167609962</v>
+        <v>2291.766009023479</v>
       </c>
       <c r="R29" t="n">
         <v>2456.31789594009</v>
@@ -6508,7 +6508,7 @@
         <v>2456.31789594009</v>
       </c>
       <c r="Y29" t="n">
-        <v>2055.38122288818</v>
+        <v>2114.602827918518</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>49.12635791880181</v>
       </c>
       <c r="I30" t="n">
-        <v>49.12635791880181</v>
+        <v>65.15367911697383</v>
       </c>
       <c r="J30" t="n">
-        <v>341.7221096526062</v>
+        <v>357.7494308507781</v>
       </c>
       <c r="K30" t="n">
-        <v>456.9994440199168</v>
+        <v>473.0267652180888</v>
       </c>
       <c r="L30" t="n">
-        <v>630.7646753512579</v>
+        <v>646.79199654943</v>
       </c>
       <c r="M30" t="n">
-        <v>1238.70335459643</v>
+        <v>857.407357146403</v>
       </c>
       <c r="N30" t="n">
-        <v>1611.025757946604</v>
+        <v>1079.432580823691</v>
       </c>
       <c r="O30" t="n">
-        <v>1805.136444407581</v>
+        <v>1273.543267284668</v>
       </c>
       <c r="P30" t="n">
-        <v>1953.097491564399</v>
+        <v>1459.157618083644</v>
       </c>
       <c r="Q30" t="n">
-        <v>2031.788258645647</v>
+        <v>1943.818542168665</v>
       </c>
       <c r="R30" t="n">
         <v>2038.951927641833</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1102.356354538591</v>
+        <v>689.0527701005078</v>
       </c>
       <c r="C31" t="n">
-        <v>931.2629821003072</v>
+        <v>517.9593976622243</v>
       </c>
       <c r="D31" t="n">
-        <v>771.7683374232172</v>
+        <v>517.9593976622243</v>
       </c>
       <c r="E31" t="n">
-        <v>610.8575222915367</v>
+        <v>357.0485825305437</v>
       </c>
       <c r="F31" t="n">
-        <v>446.226396402128</v>
+        <v>357.0485825305437</v>
       </c>
       <c r="G31" t="n">
-        <v>279.8794229584604</v>
+        <v>190.7016090868761</v>
       </c>
       <c r="H31" t="n">
-        <v>138.3041717903861</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="I31" t="n">
         <v>49.12635791880181</v>
       </c>
       <c r="J31" t="n">
-        <v>125.8094884535055</v>
+        <v>125.8094884535052</v>
       </c>
       <c r="K31" t="n">
-        <v>383.2338011101554</v>
+        <v>383.2338011101549</v>
       </c>
       <c r="L31" t="n">
-        <v>774.7716245214656</v>
+        <v>774.7716245214651</v>
       </c>
       <c r="M31" t="n">
         <v>1202.832366112511</v>
@@ -6645,28 +6645,28 @@
         <v>2456.31789594009</v>
       </c>
       <c r="R31" t="n">
-        <v>2411.666119450782</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="S31" t="n">
-        <v>2241.018456769079</v>
+        <v>2285.670233258386</v>
       </c>
       <c r="T31" t="n">
-        <v>2005.329774895515</v>
+        <v>2049.981551384823</v>
       </c>
       <c r="U31" t="n">
-        <v>1722.580904766955</v>
+        <v>1767.232681256263</v>
       </c>
       <c r="V31" t="n">
-        <v>1448.695159706477</v>
+        <v>1493.346936195785</v>
       </c>
       <c r="W31" t="n">
-        <v>1448.695159706477</v>
+        <v>1339.832037246104</v>
       </c>
       <c r="X31" t="n">
-        <v>1290.056060932635</v>
+        <v>1101.488175105787</v>
       </c>
       <c r="Y31" t="n">
-        <v>1290.056060932635</v>
+        <v>876.7524764945522</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>459.2509486055317</v>
+        <v>1294.621576134948</v>
       </c>
       <c r="C32" t="n">
-        <v>49.12635791880181</v>
+        <v>884.4969854482176</v>
       </c>
       <c r="D32" t="n">
-        <v>49.12635791880181</v>
+        <v>884.4969854482176</v>
       </c>
       <c r="E32" t="n">
-        <v>49.12635791880181</v>
+        <v>470.1567699651143</v>
       </c>
       <c r="F32" t="n">
         <v>49.12635791880181</v>
@@ -6700,19 +6700,19 @@
         <v>49.12635791880181</v>
       </c>
       <c r="J32" t="n">
-        <v>144.0713314160104</v>
+        <v>170.1828412039488</v>
       </c>
       <c r="K32" t="n">
-        <v>373.233727879376</v>
+        <v>778.1215204491211</v>
       </c>
       <c r="L32" t="n">
-        <v>981.1724071245484</v>
+        <v>995.0928414087866</v>
       </c>
       <c r="M32" t="n">
-        <v>1235.420929754906</v>
+        <v>1603.031520653959</v>
       </c>
       <c r="N32" t="n">
-        <v>1495.652051683497</v>
+        <v>1863.26264258255</v>
       </c>
       <c r="O32" t="n">
         <v>2103.590730928669</v>
@@ -6727,25 +6727,25 @@
         <v>2456.31789594009</v>
       </c>
       <c r="S32" t="n">
-        <v>2366.931179252521</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="T32" t="n">
-        <v>2366.931179252521</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="U32" t="n">
-        <v>2366.931179252521</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="V32" t="n">
-        <v>2017.093624589002</v>
+        <v>2456.31789594009</v>
       </c>
       <c r="W32" t="n">
-        <v>1633.33332372417</v>
+        <v>2105.486153630485</v>
       </c>
       <c r="X32" t="n">
-        <v>1232.689925893123</v>
+        <v>1704.842755799437</v>
       </c>
       <c r="Y32" t="n">
-        <v>869.4721282700211</v>
+        <v>1704.842755799437</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>341.7221096526062</v>
       </c>
       <c r="K33" t="n">
-        <v>456.9994440199168</v>
+        <v>510.6800688602472</v>
       </c>
       <c r="L33" t="n">
-        <v>630.7646753512579</v>
+        <v>684.4453001915883</v>
       </c>
       <c r="M33" t="n">
-        <v>1238.70335459643</v>
+        <v>895.0606607885613</v>
       </c>
       <c r="N33" t="n">
-        <v>1460.728578273718</v>
+        <v>1117.085884465849</v>
       </c>
       <c r="O33" t="n">
-        <v>1654.839264734695</v>
+        <v>1311.196570926826</v>
       </c>
       <c r="P33" t="n">
-        <v>1802.800311891512</v>
+        <v>1459.157618083644</v>
       </c>
       <c r="Q33" t="n">
-        <v>2031.788258645647</v>
+        <v>1943.818542168665</v>
       </c>
       <c r="R33" t="n">
         <v>2038.951927641833</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>969.8343491143301</v>
+        <v>871.6032894989321</v>
       </c>
       <c r="C34" t="n">
-        <v>798.7409766760466</v>
+        <v>700.5099170606486</v>
       </c>
       <c r="D34" t="n">
-        <v>639.2463319989565</v>
+        <v>541.0152723835587</v>
       </c>
       <c r="E34" t="n">
-        <v>478.335516867276</v>
+        <v>380.1044572518782</v>
       </c>
       <c r="F34" t="n">
-        <v>313.7043909778673</v>
+        <v>215.4733313624694</v>
       </c>
       <c r="G34" t="n">
-        <v>147.3574175341996</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="H34" t="n">
         <v>49.12635791880181</v>
@@ -6858,7 +6858,7 @@
         <v>49.12635791880181</v>
       </c>
       <c r="J34" t="n">
-        <v>125.8094884535053</v>
+        <v>125.8094884535054</v>
       </c>
       <c r="K34" t="n">
         <v>383.2338011101551</v>
@@ -6885,25 +6885,25 @@
         <v>2456.31789594009</v>
       </c>
       <c r="S34" t="n">
-        <v>2456.31789594009</v>
+        <v>2285.670233258386</v>
       </c>
       <c r="T34" t="n">
-        <v>2456.31789594009</v>
+        <v>2049.981551384823</v>
       </c>
       <c r="U34" t="n">
-        <v>2173.56902581153</v>
+        <v>2049.981551384823</v>
       </c>
       <c r="V34" t="n">
-        <v>1899.683280751052</v>
+        <v>1776.095806324345</v>
       </c>
       <c r="W34" t="n">
-        <v>1620.613616259926</v>
+        <v>1522.382556644528</v>
       </c>
       <c r="X34" t="n">
-        <v>1382.26975411961</v>
+        <v>1284.038694504212</v>
       </c>
       <c r="Y34" t="n">
-        <v>1157.534055508374</v>
+        <v>1059.302995892976</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>851.7868844744746</v>
+        <v>1280.443242532744</v>
       </c>
       <c r="C35" t="n">
-        <v>851.7868844744746</v>
+        <v>1280.443242532744</v>
       </c>
       <c r="D35" t="n">
-        <v>447.3229545675351</v>
+        <v>875.9793126258041</v>
       </c>
       <c r="E35" t="n">
-        <v>447.3229545675351</v>
+        <v>461.6390971427008</v>
       </c>
       <c r="F35" t="n">
-        <v>447.3229545675351</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="G35" t="n">
         <v>40.60868509638841</v>
@@ -6937,52 +6937,52 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J35" t="n">
-        <v>462.3294854813261</v>
+        <v>416.0853656505561</v>
       </c>
       <c r="K35" t="n">
-        <v>625.1764886978946</v>
+        <v>578.9323688671246</v>
       </c>
       <c r="L35" t="n">
-        <v>842.1478096575601</v>
+        <v>795.9036898267901</v>
       </c>
       <c r="M35" t="n">
-        <v>1096.396332287918</v>
+        <v>1050.152212457148</v>
       </c>
       <c r="N35" t="n">
-        <v>1356.627454216509</v>
+        <v>1310.383334385739</v>
       </c>
       <c r="O35" t="n">
-        <v>1596.955542562628</v>
+        <v>1550.711422731858</v>
       </c>
       <c r="P35" t="n">
-        <v>1788.097100431331</v>
+        <v>1741.852980600561</v>
       </c>
       <c r="Q35" t="n">
-        <v>1912.126487733579</v>
+        <v>1865.882367902809</v>
       </c>
       <c r="R35" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S35" t="n">
-        <v>1941.047538131851</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="T35" t="n">
-        <v>1727.657403147892</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="U35" t="n">
-        <v>1470.758032578284</v>
+        <v>1817.044119835461</v>
       </c>
       <c r="V35" t="n">
-        <v>1470.758032578284</v>
+        <v>1467.206565171942</v>
       </c>
       <c r="W35" t="n">
-        <v>1086.997731713452</v>
+        <v>1280.443242532744</v>
       </c>
       <c r="X35" t="n">
-        <v>1086.997731713452</v>
+        <v>1280.443242532744</v>
       </c>
       <c r="Y35" t="n">
-        <v>851.7868844744746</v>
+        <v>1280.443242532744</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>40.60868509638841</v>
       </c>
       <c r="I36" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J36" t="n">
-        <v>333.2044368301927</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K36" t="n">
-        <v>835.7369148979992</v>
+        <v>590.1321125148157</v>
       </c>
       <c r="L36" t="n">
-        <v>1009.50214622934</v>
+        <v>763.8973438461569</v>
       </c>
       <c r="M36" t="n">
-        <v>1220.117506826313</v>
+        <v>974.5127044431299</v>
       </c>
       <c r="N36" t="n">
-        <v>1442.142730503601</v>
+        <v>1196.537928120418</v>
       </c>
       <c r="O36" t="n">
-        <v>1636.253416964578</v>
+        <v>1390.648614581395</v>
       </c>
       <c r="P36" t="n">
-        <v>1856.610102265005</v>
+        <v>1538.609661738212</v>
       </c>
       <c r="Q36" t="n">
-        <v>1935.300869346252</v>
+        <v>2023.270585823234</v>
       </c>
       <c r="R36" t="n">
         <v>2030.43425481942</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>826.6995781222203</v>
+        <v>308.2620261200967</v>
       </c>
       <c r="C37" t="n">
-        <v>655.6062056839368</v>
+        <v>137.1686536818132</v>
       </c>
       <c r="D37" t="n">
-        <v>496.1115610068468</v>
+        <v>137.1686536818132</v>
       </c>
       <c r="E37" t="n">
-        <v>335.2007458751663</v>
+        <v>137.1686536818132</v>
       </c>
       <c r="F37" t="n">
-        <v>170.5696199857575</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="G37" t="n">
         <v>40.60868509638841</v>
@@ -7095,22 +7095,22 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J37" t="n">
-        <v>52.29045199975552</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K37" t="n">
-        <v>309.7147646564052</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L37" t="n">
-        <v>387.2734768326924</v>
+        <v>452.2748404640288</v>
       </c>
       <c r="M37" t="n">
-        <v>815.3342184237383</v>
+        <v>880.3355820550746</v>
       </c>
       <c r="N37" t="n">
-        <v>1231.669411021506</v>
+        <v>1296.670774652843</v>
       </c>
       <c r="O37" t="n">
-        <v>1616.382886900424</v>
+        <v>1681.384250531761</v>
       </c>
       <c r="P37" t="n">
         <v>1890.762731023884</v>
@@ -7125,22 +7125,22 @@
         <v>2030.43425481942</v>
       </c>
       <c r="T37" t="n">
-        <v>2030.43425481942</v>
+        <v>1794.745572945857</v>
       </c>
       <c r="U37" t="n">
-        <v>2030.43425481942</v>
+        <v>1511.996702817297</v>
       </c>
       <c r="V37" t="n">
-        <v>1756.548509758942</v>
+        <v>1238.110957756819</v>
       </c>
       <c r="W37" t="n">
-        <v>1477.478845267816</v>
+        <v>959.041293265693</v>
       </c>
       <c r="X37" t="n">
-        <v>1239.1349831275</v>
+        <v>720.6974311253764</v>
       </c>
       <c r="Y37" t="n">
-        <v>1014.399284516265</v>
+        <v>495.9617325141411</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1646.673953954589</v>
+        <v>737.6054245486666</v>
       </c>
       <c r="C38" t="n">
-        <v>1646.673953954589</v>
+        <v>737.6054245486666</v>
       </c>
       <c r="D38" t="n">
-        <v>1282.693582096951</v>
+        <v>737.6054245486666</v>
       </c>
       <c r="E38" t="n">
-        <v>868.3533666138476</v>
+        <v>737.6054245486666</v>
       </c>
       <c r="F38" t="n">
-        <v>447.3229545675351</v>
+        <v>737.6054245486666</v>
       </c>
       <c r="G38" t="n">
-        <v>40.60868509638841</v>
+        <v>330.8911550775198</v>
       </c>
       <c r="H38" t="n">
         <v>40.60868509638841</v>
@@ -7174,52 +7174,52 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J38" t="n">
-        <v>462.3294854813261</v>
+        <v>135.553658593597</v>
       </c>
       <c r="K38" t="n">
-        <v>625.1764886978946</v>
+        <v>298.4006618101654</v>
       </c>
       <c r="L38" t="n">
-        <v>842.1478096575601</v>
+        <v>515.371982769831</v>
       </c>
       <c r="M38" t="n">
-        <v>1096.396332287918</v>
+        <v>769.6205054001888</v>
       </c>
       <c r="N38" t="n">
-        <v>1356.627454216509</v>
+        <v>1029.85162732878</v>
       </c>
       <c r="O38" t="n">
-        <v>1596.955542562628</v>
+        <v>1270.179715674899</v>
       </c>
       <c r="P38" t="n">
-        <v>1788.097100431331</v>
+        <v>1772.712193742706</v>
       </c>
       <c r="Q38" t="n">
-        <v>1912.126487733579</v>
+        <v>1896.741581044954</v>
       </c>
       <c r="R38" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S38" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T38" t="n">
-        <v>2030.43425481942</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="U38" t="n">
-        <v>2030.43425481942</v>
+        <v>1471.203280077017</v>
       </c>
       <c r="V38" t="n">
-        <v>2030.43425481942</v>
+        <v>1121.365725413498</v>
       </c>
       <c r="W38" t="n">
-        <v>1646.673953954589</v>
+        <v>737.6054245486666</v>
       </c>
       <c r="X38" t="n">
-        <v>1646.673953954589</v>
+        <v>737.6054245486666</v>
       </c>
       <c r="Y38" t="n">
-        <v>1646.673953954589</v>
+        <v>737.6054245486666</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>687.206064641598</v>
+        <v>687.2060646415979</v>
       </c>
       <c r="C39" t="n">
-        <v>553.2109933905438</v>
+        <v>553.2109933905436</v>
       </c>
       <c r="D39" t="n">
         <v>436.3138356099362</v>
@@ -7241,10 +7241,10 @@
         <v>315.8210196022642</v>
       </c>
       <c r="F39" t="n">
-        <v>206.8611397847688</v>
+        <v>206.8611397847687</v>
       </c>
       <c r="G39" t="n">
-        <v>100.9486199300691</v>
+        <v>100.9486199300693</v>
       </c>
       <c r="H39" t="n">
         <v>40.60868509638841</v>
@@ -7256,25 +7256,25 @@
         <v>333.2044368301927</v>
       </c>
       <c r="K39" t="n">
-        <v>835.7369148979992</v>
+        <v>590.1321125148157</v>
       </c>
       <c r="L39" t="n">
-        <v>1009.50214622934</v>
+        <v>763.8973438461569</v>
       </c>
       <c r="M39" t="n">
-        <v>1220.117506826313</v>
+        <v>974.5127044431299</v>
       </c>
       <c r="N39" t="n">
-        <v>1442.142730503601</v>
+        <v>1196.537928120418</v>
       </c>
       <c r="O39" t="n">
-        <v>1636.253416964578</v>
+        <v>1390.648614581395</v>
       </c>
       <c r="P39" t="n">
-        <v>1856.610102265005</v>
+        <v>1538.609661738212</v>
       </c>
       <c r="Q39" t="n">
-        <v>1935.300869346252</v>
+        <v>2023.270585823234</v>
       </c>
       <c r="R39" t="n">
         <v>2030.43425481942</v>
@@ -7286,7 +7286,7 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U39" t="n">
-        <v>1590.1817340451</v>
+        <v>1590.181734045099</v>
       </c>
       <c r="V39" t="n">
         <v>1376.470207038133</v>
@@ -7295,10 +7295,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X39" t="n">
-        <v>986.911056913355</v>
+        <v>986.9110569133545</v>
       </c>
       <c r="Y39" t="n">
-        <v>827.5090972771847</v>
+        <v>827.5090972771845</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.860582383101</v>
+        <v>531.0814291065547</v>
       </c>
       <c r="C40" t="n">
-        <v>591.7672099448175</v>
+        <v>531.0814291065547</v>
       </c>
       <c r="D40" t="n">
-        <v>432.2725652677275</v>
+        <v>371.5867844294647</v>
       </c>
       <c r="E40" t="n">
-        <v>271.361750136047</v>
+        <v>371.5867844294647</v>
       </c>
       <c r="F40" t="n">
-        <v>271.361750136047</v>
+        <v>206.955658540056</v>
       </c>
       <c r="G40" t="n">
-        <v>271.361750136047</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="H40" t="n">
-        <v>129.7864989679727</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I40" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J40" t="n">
-        <v>52.29045199975552</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K40" t="n">
-        <v>309.7147646564052</v>
+        <v>218.247643462603</v>
       </c>
       <c r="L40" t="n">
-        <v>701.2525880677155</v>
+        <v>609.7854668739133</v>
       </c>
       <c r="M40" t="n">
-        <v>1129.313329658761</v>
+        <v>1037.846208464959</v>
       </c>
       <c r="N40" t="n">
-        <v>1545.648522256529</v>
+        <v>1454.181401062727</v>
       </c>
       <c r="O40" t="n">
-        <v>1930.361998135447</v>
+        <v>1838.894876941645</v>
       </c>
       <c r="P40" t="n">
-        <v>1982.229852217686</v>
+        <v>1890.762731023884</v>
       </c>
       <c r="Q40" t="n">
         <v>2030.43425481942</v>
@@ -7359,25 +7359,25 @@
         <v>1985.782478330112</v>
       </c>
       <c r="S40" t="n">
-        <v>1970.274464717735</v>
+        <v>1815.134815648408</v>
       </c>
       <c r="T40" t="n">
-        <v>1970.274464717735</v>
+        <v>1579.446133774845</v>
       </c>
       <c r="U40" t="n">
-        <v>1687.525594589175</v>
+        <v>1296.697263646284</v>
       </c>
       <c r="V40" t="n">
-        <v>1413.639849528697</v>
+        <v>1022.811518585806</v>
       </c>
       <c r="W40" t="n">
-        <v>1413.639849528697</v>
+        <v>769.4252912468712</v>
       </c>
       <c r="X40" t="n">
-        <v>1175.295987388381</v>
+        <v>531.0814291065547</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.5602887771454</v>
+        <v>531.0814291065547</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>238.3569578385053</v>
+        <v>751.9215671238323</v>
       </c>
       <c r="C41" t="n">
-        <v>238.3569578385053</v>
+        <v>751.9215671238323</v>
       </c>
       <c r="D41" t="n">
-        <v>49.31514852411362</v>
+        <v>751.9215671238323</v>
       </c>
       <c r="E41" t="n">
-        <v>49.31514852411362</v>
+        <v>751.9215671238323</v>
       </c>
       <c r="F41" t="n">
-        <v>49.31514852411362</v>
+        <v>330.8911550775198</v>
       </c>
       <c r="G41" t="n">
-        <v>49.31514852411362</v>
+        <v>330.8911550775198</v>
       </c>
       <c r="H41" t="n">
-        <v>49.31514852411362</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I41" t="n">
-        <v>40.60868509638843</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="J41" t="n">
-        <v>135.553658593597</v>
+        <v>462.3294854813261</v>
       </c>
       <c r="K41" t="n">
-        <v>578.9323688671262</v>
+        <v>625.1764886978946</v>
       </c>
       <c r="L41" t="n">
-        <v>795.9036898267917</v>
+        <v>842.1478096575601</v>
       </c>
       <c r="M41" t="n">
-        <v>1050.15221245715</v>
+        <v>1096.396332287918</v>
       </c>
       <c r="N41" t="n">
-        <v>1310.38333438574</v>
+        <v>1356.627454216509</v>
       </c>
       <c r="O41" t="n">
-        <v>1550.71142273186</v>
+        <v>1596.955542562628</v>
       </c>
       <c r="P41" t="n">
-        <v>1741.852980600562</v>
+        <v>1788.097100431331</v>
       </c>
       <c r="Q41" t="n">
-        <v>1865.882367902811</v>
+        <v>1992.87803497895</v>
       </c>
       <c r="R41" t="n">
-        <v>2030.434254819422</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S41" t="n">
-        <v>2030.434254819422</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T41" t="n">
-        <v>2030.434254819422</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="U41" t="n">
-        <v>1773.534884249813</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="V41" t="n">
-        <v>1423.697329586294</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="W41" t="n">
-        <v>1039.937028721463</v>
+        <v>1343.89710228306</v>
       </c>
       <c r="X41" t="n">
-        <v>639.2936308904152</v>
+        <v>943.2537044520129</v>
       </c>
       <c r="Y41" t="n">
-        <v>238.3569578385053</v>
+        <v>751.9215671238323</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>687.2060646415997</v>
+        <v>687.206064641598</v>
       </c>
       <c r="C42" t="n">
-        <v>553.2109933905454</v>
+        <v>553.2109933905438</v>
       </c>
       <c r="D42" t="n">
-        <v>436.3138356099378</v>
+        <v>436.3138356099362</v>
       </c>
       <c r="E42" t="n">
-        <v>315.8210196022658</v>
+        <v>315.8210196022642</v>
       </c>
       <c r="F42" t="n">
-        <v>206.8611397847704</v>
+        <v>206.8611397847688</v>
       </c>
       <c r="G42" t="n">
-        <v>100.9486199300707</v>
+        <v>100.9486199300691</v>
       </c>
       <c r="H42" t="n">
-        <v>40.60868509638843</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I42" t="n">
-        <v>56.63600629456046</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="J42" t="n">
-        <v>349.2317580283648</v>
+        <v>333.2044368301927</v>
       </c>
       <c r="K42" t="n">
-        <v>464.5090923956754</v>
+        <v>448.4817711975034</v>
       </c>
       <c r="L42" t="n">
-        <v>638.2743237270165</v>
+        <v>622.2470025288445</v>
       </c>
       <c r="M42" t="n">
-        <v>848.8896843239895</v>
+        <v>832.8623631258174</v>
       </c>
       <c r="N42" t="n">
-        <v>1070.914908001277</v>
+        <v>1054.887586803105</v>
       </c>
       <c r="O42" t="n">
-        <v>1265.025594462254</v>
+        <v>1248.998273264082</v>
       </c>
       <c r="P42" t="n">
-        <v>1767.558072530061</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q42" t="n">
-        <v>1935.300869346254</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R42" t="n">
-        <v>2030.434254819422</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S42" t="n">
-        <v>1942.460059140408</v>
+        <v>1942.460059140407</v>
       </c>
       <c r="T42" t="n">
-        <v>1787.461650641687</v>
+        <v>1787.461650641686</v>
       </c>
       <c r="U42" t="n">
-        <v>1590.181734045101</v>
+        <v>1590.1817340451</v>
       </c>
       <c r="V42" t="n">
-        <v>1376.470207038135</v>
+        <v>1376.470207038133</v>
       </c>
       <c r="W42" t="n">
-        <v>1163.237038774464</v>
+        <v>1163.237038774462</v>
       </c>
       <c r="X42" t="n">
-        <v>986.9110569133563</v>
+        <v>986.911056913355</v>
       </c>
       <c r="Y42" t="n">
-        <v>827.5090972771864</v>
+        <v>827.509097277185</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.745309277894</v>
+        <v>763.2506646008039</v>
       </c>
       <c r="C43" t="n">
-        <v>922.745309277894</v>
+        <v>763.2506646008039</v>
       </c>
       <c r="D43" t="n">
         <v>763.2506646008039</v>
@@ -7566,55 +7566,55 @@
         <v>129.7864989679727</v>
       </c>
       <c r="I43" t="n">
-        <v>40.60868509638843</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="J43" t="n">
         <v>117.2918156310919</v>
       </c>
       <c r="K43" t="n">
-        <v>374.7161282877416</v>
+        <v>218.247643462603</v>
       </c>
       <c r="L43" t="n">
-        <v>766.2539516990519</v>
+        <v>609.7854668739133</v>
       </c>
       <c r="M43" t="n">
-        <v>1194.314693290098</v>
+        <v>1037.846208464959</v>
       </c>
       <c r="N43" t="n">
-        <v>1610.649885887866</v>
+        <v>1454.181401062727</v>
       </c>
       <c r="O43" t="n">
-        <v>1680.288602348043</v>
+        <v>1838.894876941645</v>
       </c>
       <c r="P43" t="n">
-        <v>1890.762731023885</v>
+        <v>1890.762731023884</v>
       </c>
       <c r="Q43" t="n">
-        <v>2030.434254819422</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="R43" t="n">
-        <v>1985.782478330113</v>
+        <v>1985.782478330112</v>
       </c>
       <c r="S43" t="n">
-        <v>1815.134815648409</v>
+        <v>1815.134815648408</v>
       </c>
       <c r="T43" t="n">
-        <v>1579.446133774846</v>
+        <v>1579.446133774845</v>
       </c>
       <c r="U43" t="n">
-        <v>1385.824870029446</v>
+        <v>1296.697263646284</v>
       </c>
       <c r="V43" t="n">
-        <v>1385.824870029446</v>
+        <v>1296.697263646284</v>
       </c>
       <c r="W43" t="n">
-        <v>1385.824870029446</v>
+        <v>1017.627599155159</v>
       </c>
       <c r="X43" t="n">
-        <v>1147.481007889129</v>
+        <v>779.2837370148422</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.745309277894</v>
+        <v>763.2506646008039</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1327.014005316846</v>
+        <v>1620.213075154931</v>
       </c>
       <c r="C44" t="n">
-        <v>1167.342300022704</v>
+        <v>1210.088484468201</v>
       </c>
       <c r="D44" t="n">
-        <v>1167.342300022704</v>
+        <v>805.6245545612614</v>
       </c>
       <c r="E44" t="n">
-        <v>1167.342300022704</v>
+        <v>391.2843390781582</v>
       </c>
       <c r="F44" t="n">
-        <v>746.3118879763917</v>
+        <v>391.2843390781582</v>
       </c>
       <c r="G44" t="n">
-        <v>339.5976185052451</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="H44" t="n">
-        <v>49.31514852411362</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I44" t="n">
-        <v>40.60868509638843</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="J44" t="n">
         <v>135.553658593597</v>
       </c>
       <c r="K44" t="n">
-        <v>638.0861366614038</v>
+        <v>298.4006618101654</v>
       </c>
       <c r="L44" t="n">
-        <v>855.0574576210693</v>
+        <v>515.371982769831</v>
       </c>
       <c r="M44" t="n">
-        <v>1109.305980251427</v>
+        <v>769.6205054001888</v>
       </c>
       <c r="N44" t="n">
-        <v>1369.537102180018</v>
+        <v>1029.85162732878</v>
       </c>
       <c r="O44" t="n">
-        <v>1677.707089808001</v>
+        <v>1270.179715674899</v>
       </c>
       <c r="P44" t="n">
-        <v>1868.848647676703</v>
+        <v>1490.345556911144</v>
       </c>
       <c r="Q44" t="n">
-        <v>1992.878034978952</v>
+        <v>1992.87803497895</v>
       </c>
       <c r="R44" t="n">
-        <v>2030.434254819422</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S44" t="n">
-        <v>1941.047538131852</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="T44" t="n">
-        <v>1727.657403147893</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="U44" t="n">
-        <v>1727.657403147893</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="V44" t="n">
-        <v>1727.657403147893</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="W44" t="n">
-        <v>1727.657403147893</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="X44" t="n">
-        <v>1327.014005316846</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="Y44" t="n">
-        <v>1327.014005316846</v>
+        <v>2030.43425481942</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>687.2060646415982</v>
+        <v>687.2060646415983</v>
       </c>
       <c r="C45" t="n">
-        <v>553.2109933905439</v>
+        <v>553.2109933905438</v>
       </c>
       <c r="D45" t="n">
-        <v>436.3138356099363</v>
+        <v>436.3138356099362</v>
       </c>
       <c r="E45" t="n">
         <v>315.8210196022642</v>
@@ -7718,61 +7718,61 @@
         <v>206.8611397847688</v>
       </c>
       <c r="G45" t="n">
-        <v>100.9486199300692</v>
+        <v>100.9486199300691</v>
       </c>
       <c r="H45" t="n">
-        <v>40.60868509638843</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I45" t="n">
-        <v>56.63600629456046</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="J45" t="n">
-        <v>349.2317580283648</v>
+        <v>333.2044368301927</v>
       </c>
       <c r="K45" t="n">
-        <v>627.6252986510906</v>
+        <v>448.4817711975034</v>
       </c>
       <c r="L45" t="n">
-        <v>801.3905299824316</v>
+        <v>622.2470025288445</v>
       </c>
       <c r="M45" t="n">
-        <v>1012.005890579405</v>
+        <v>832.8623631258174</v>
       </c>
       <c r="N45" t="n">
-        <v>1514.538368647211</v>
+        <v>1054.887586803105</v>
       </c>
       <c r="O45" t="n">
-        <v>1708.649055108189</v>
+        <v>1248.998273264082</v>
       </c>
       <c r="P45" t="n">
-        <v>1856.610102265006</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q45" t="n">
-        <v>1935.300869346254</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R45" t="n">
-        <v>2030.434254819422</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S45" t="n">
-        <v>1942.460059140408</v>
+        <v>1942.460059140407</v>
       </c>
       <c r="T45" t="n">
-        <v>1787.461650641687</v>
+        <v>1787.461650641686</v>
       </c>
       <c r="U45" t="n">
-        <v>1590.181734045101</v>
+        <v>1590.1817340451</v>
       </c>
       <c r="V45" t="n">
-        <v>1376.470207038135</v>
+        <v>1376.470207038133</v>
       </c>
       <c r="W45" t="n">
-        <v>1163.237038774464</v>
+        <v>1163.237038774462</v>
       </c>
       <c r="X45" t="n">
-        <v>986.9110569133549</v>
+        <v>986.911056913355</v>
       </c>
       <c r="Y45" t="n">
-        <v>827.5090972771849</v>
+        <v>827.509097277185</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>519.0061554834468</v>
+        <v>880.7876140517515</v>
       </c>
       <c r="C46" t="n">
-        <v>347.9127830451633</v>
+        <v>709.694241613468</v>
       </c>
       <c r="D46" t="n">
-        <v>188.4181383680734</v>
+        <v>550.1995969363779</v>
       </c>
       <c r="E46" t="n">
-        <v>40.60868509638843</v>
+        <v>550.1995969363779</v>
       </c>
       <c r="F46" t="n">
-        <v>40.60868509638843</v>
+        <v>385.5684710469692</v>
       </c>
       <c r="G46" t="n">
-        <v>40.60868509638843</v>
+        <v>219.2214976033016</v>
       </c>
       <c r="H46" t="n">
-        <v>40.60868509638843</v>
+        <v>129.7864989679727</v>
       </c>
       <c r="I46" t="n">
-        <v>40.60868509638843</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="J46" t="n">
         <v>117.2918156310919</v>
       </c>
       <c r="K46" t="n">
-        <v>374.7161282877416</v>
+        <v>218.247643462603</v>
       </c>
       <c r="L46" t="n">
-        <v>766.2539516990519</v>
+        <v>609.7854668739133</v>
       </c>
       <c r="M46" t="n">
-        <v>1194.314693290098</v>
+        <v>1037.846208464959</v>
       </c>
       <c r="N46" t="n">
-        <v>1610.649885887866</v>
+        <v>1454.181401062727</v>
       </c>
       <c r="O46" t="n">
-        <v>1838.894876941647</v>
+        <v>1838.894876941645</v>
       </c>
       <c r="P46" t="n">
-        <v>1890.762731023885</v>
+        <v>1890.762731023884</v>
       </c>
       <c r="Q46" t="n">
-        <v>2030.434254819422</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="R46" t="n">
-        <v>1985.782478330113</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S46" t="n">
-        <v>1815.134815648409</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="T46" t="n">
-        <v>1579.446133774846</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="U46" t="n">
-        <v>1296.697263646286</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="V46" t="n">
-        <v>1022.811518585808</v>
+        <v>1585.900847077238</v>
       </c>
       <c r="W46" t="n">
-        <v>743.7418540946821</v>
+        <v>1306.831182586112</v>
       </c>
       <c r="X46" t="n">
-        <v>743.7418540946821</v>
+        <v>1068.487320445796</v>
       </c>
       <c r="Y46" t="n">
-        <v>519.0061554834468</v>
+        <v>1068.487320445796</v>
       </c>
     </row>
   </sheetData>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>283.3653606635953</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>97.10752922625869</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>314.536283029398</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>38.03364004258478</v>
+        <v>38.03364004258509</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8850,13 +8850,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>120.0764697507092</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N13" t="n">
         <v>335.3881832803894</v>
@@ -8865,7 +8865,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>263.5328115890082</v>
+        <v>243.5222551492415</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3653606635953</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>81.56721943976896</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,13 +9008,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>391.1668118186827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>38.03364004258515</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>145.7959933559781</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>115.9728003958706</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>348.4508580952379</v>
+        <v>262.257255215772</v>
       </c>
       <c r="N16" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q16" t="n">
         <v>127.5494547533709</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>29.31745794701209</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>382.3263543086449</v>
+        <v>283.3653606635952</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>40.93351248212974</v>
+        <v>38.03364004258509</v>
       </c>
       <c r="L18" t="n">
-        <v>332.0881280166317</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9327,13 +9327,13 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>296.6149575916046</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
         <v>318.2573327462026</v>
@@ -9342,7 +9342,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>120.0764697507093</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>283.3653606635953</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>283.3653606635952</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>192.87878102834</v>
+        <v>38.03364004258509</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>294.8657752230642</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>311.5371632392217</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
         <v>208.3638319047618</v>
@@ -9570,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>327.9151982777282</v>
+        <v>262.257255215772</v>
       </c>
       <c r="O22" t="n">
         <v>318.2573327462026</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>374.8705540075622</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>357.2627844594086</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>347.6843623640415</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>401.3366855032317</v>
+        <v>38.03364004258424</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>397.9450339873938</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.076592815888</v>
+        <v>290.5082850553162</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>374.8705540075625</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>438.5590382967992</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>271.8643817221275</v>
+        <v>38.0336400425843</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10041,7 +10041,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>348.4508580952379</v>
+        <v>348.4508580952378</v>
       </c>
       <c r="N28" t="n">
         <v>335.3881832803894</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>40.89457591498396</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,22 +10120,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>357.2627844594086</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>371.3238291909624</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>421.0071933095655</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>347.6843623640415</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
         <v>246.129700984478</v>
@@ -10199,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>401.3366855032317</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>151.8153330029156</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>38.0336400425843</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>65.65794306195595</v>
+        <v>65.65794306195583</v>
       </c>
       <c r="K31" t="n">
         <v>208.3638319047618</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>26.37526241205902</v>
       </c>
       <c r="K32" t="n">
-        <v>66.98524570383555</v>
+        <v>449.5875515440442</v>
       </c>
       <c r="L32" t="n">
-        <v>394.916523520714</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>357.2627844594087</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>371.3238291909624</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10424,19 +10424,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3.576245102550885</v>
+        <v>3.576245102550878</v>
       </c>
       <c r="J33" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>54.22285337407104</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>401.3366855032317</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>151.8153330029157</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>283.3653606635951</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>81.56721943976896</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.576245102550885</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>391.1668118186827</v>
+        <v>126.8919395142831</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>73.12690721576675</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
         <v>208.3638319047618</v>
@@ -10761,7 +10761,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>224.759585900223</v>
+        <v>159.1016428382671</v>
       </c>
       <c r="Q37" t="n">
         <v>127.5494547533709</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>314.536283029398</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>81.56721943976896</v>
+        <v>97.10752922625868</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3.576245102550885</v>
+        <v>3.576245102550878</v>
       </c>
       <c r="J39" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>391.1668118186827</v>
+        <v>143.08115284577</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>73.12690721576675</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>50.31485733391469</v>
       </c>
       <c r="L40" t="n">
         <v>317.1506174091142</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.15842324447957</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>283.3653606635967</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>81.56721943976893</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.76545843403778</v>
+        <v>3.576245102550878</v>
       </c>
       <c r="J42" t="n">
         <v>246.129700984478</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>358.1529605161509</v>
+        <v>54.22285337407195</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.95154518681289</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11220,7 +11220,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>50.31485733391469</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
@@ -11232,10 +11232,10 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>160.2083581753568</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>127.5494547533709</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>343.1166412638771</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52717099178142</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>29.31745794701183</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>382.3263543086448</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.76545843403778</v>
+        <v>3.576245102550878</v>
       </c>
       <c r="J45" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>164.7638447024396</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,16 +11387,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>283.3406610005245</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>54.22285337407195</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11457,7 +11457,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>50.31485733391469</v>
       </c>
       <c r="L46" t="n">
         <v>317.1506174091142</v>
@@ -11469,7 +11469,7 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>160.2083581753569</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>361.6694861271442</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H11" t="n">
         <v>287.3796452813201</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>117.5381426156539</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>41.7528569796571</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.6835037092309</v>
+        <v>89.86691596769361</v>
       </c>
       <c r="H13" t="n">
         <v>140.1594986563935</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>252.4202277265919</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>402.6471267764352</v>
       </c>
       <c r="H14" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>28.48707432727048</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.74049242742061</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>16.51202642945296</v>
       </c>
       <c r="G16" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I16" t="n">
         <v>88.28603573286843</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>44.51065050993151</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>286.964616953743</v>
       </c>
       <c r="G17" t="n">
         <v>402.6471267764352</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.3303768639121</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>151.552121154648</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>151.3458055100739</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>402.6471267764352</v>
       </c>
       <c r="H20" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>8.619398793447928</v>
@@ -24022,22 +24022,22 @@
         <v>88.49284952069368</v>
       </c>
       <c r="T20" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>315.8390772023322</v>
       </c>
       <c r="X20" t="n">
-        <v>36.19855940390363</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I22" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T22" t="n">
         <v>233.3317950548276</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>168.2691718099851</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>224.6446178952199</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24211,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>67.72542743850659</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>287.3796452813201</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>69.26911393449333</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.6835037092309</v>
+        <v>136.0830460355837</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.20525872441495</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24445,16 +24445,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>349.2681277616966</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>402.6471267764352</v>
@@ -24502,16 +24502,16 @@
         <v>254.3303768639121</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>32.59927296967368</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>80.62426815050108</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>168.504476610445</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>53.38620819001437</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>287.3796452813201</v>
       </c>
       <c r="I29" t="n">
-        <v>8.619398793447928</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>58.62938898003472</v>
       </c>
     </row>
     <row r="30">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>44.20525872441495</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>124.2992178860303</v>
       </c>
       <c r="X31" t="n">
-        <v>78.90771573281003</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,10 +24925,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>402.6471267764352</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T32" t="n">
         <v>211.2562336341194</v>
@@ -24976,16 +24976,16 @@
         <v>254.3303768639121</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>32.59927296967368</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>37.34168667452019</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>42.91074963714968</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I34" t="n">
         <v>88.28603573286843</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.20525872441496</v>
+        <v>44.20525872441495</v>
       </c>
       <c r="S34" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>25.10285066319605</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25162,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H35" t="n">
         <v>287.3796452813201</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>195.027008443377</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>164.0685675548031</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>67.39044573094408</v>
       </c>
       <c r="G37" t="n">
-        <v>36.02217816875552</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H37" t="n">
         <v>140.1594986563935</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.20525872441496</v>
+        <v>44.20525872441495</v>
       </c>
       <c r="S37" t="n">
         <v>168.9411860548871</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25396,19 +25396,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>40.07872246880851</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>8.619398793447928</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3303768639121</v>
+        <v>0.4407950237464604</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>153.588252578634</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>25.4266027806685</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25633,22 +25633,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>213.2678993866223</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>402.6471267764352</v>
       </c>
       <c r="H41" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>207.5084903664921</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>88.23633031932823</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>206.615599935225</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>247.9483565386625</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>55.47822933448322</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U44" t="n">
         <v>254.3303768639121</v>
@@ -25930,7 +25930,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>12.97034824139564</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.1594986563935</v>
+        <v>51.61885000741793</v>
       </c>
       <c r="I46" t="n">
-        <v>88.28603573286843</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>44.20525872441495</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>458094.9386212731</v>
+        <v>458094.938621273</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>458094.9386212731</v>
+        <v>458094.938621273</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>458094.9386212731</v>
+        <v>458094.938621273</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>518328.5535185988</v>
+        <v>518328.5535185989</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>518328.5535185988</v>
+        <v>518328.5535185987</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>458094.9386212734</v>
+        <v>458094.938621273</v>
       </c>
     </row>
     <row r="16">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>453606.7885146521</v>
+      </c>
+      <c r="C2" t="n">
         <v>453606.7885146522</v>
-      </c>
-      <c r="C2" t="n">
-        <v>453606.788514652</v>
       </c>
       <c r="D2" t="n">
         <v>453606.7885146521</v>
       </c>
       <c r="E2" t="n">
+        <v>281056.5787634362</v>
+      </c>
+      <c r="F2" t="n">
+        <v>281056.5787634363</v>
+      </c>
+      <c r="G2" t="n">
         <v>281056.5787634361</v>
       </c>
-      <c r="F2" t="n">
-        <v>281056.5787634361</v>
-      </c>
-      <c r="G2" t="n">
-        <v>281056.5787634362</v>
-      </c>
       <c r="H2" t="n">
-        <v>281056.5787634362</v>
+        <v>281056.5787634363</v>
       </c>
       <c r="I2" t="n">
-        <v>311021.2849842158</v>
+        <v>311021.2849842161</v>
       </c>
       <c r="J2" t="n">
-        <v>311021.2849842159</v>
+        <v>311021.2849842161</v>
       </c>
       <c r="K2" t="n">
         <v>311021.284984216</v>
       </c>
       <c r="L2" t="n">
-        <v>311021.2849842159</v>
+        <v>311021.284984216</v>
       </c>
       <c r="M2" t="n">
         <v>281056.5787634362</v>
@@ -26352,10 +26352,10 @@
         <v>281056.5787634361</v>
       </c>
       <c r="O2" t="n">
-        <v>281056.5787634363</v>
+        <v>281056.5787634362</v>
       </c>
       <c r="P2" t="n">
-        <v>281056.5787634363</v>
+        <v>281056.5787634362</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>550029.5804548445</v>
+        <v>550029.5804548444</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28312.8509326124</v>
+        <v>28312.85093261231</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99965.10778404583</v>
+        <v>99965.10778404586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>348447.190367815</v>
       </c>
       <c r="E4" t="n">
-        <v>36950.24401123944</v>
+        <v>36950.24401123946</v>
       </c>
       <c r="F4" t="n">
         <v>36950.24401123945</v>
       </c>
       <c r="G4" t="n">
-        <v>36950.24401123946</v>
+        <v>36950.24401123945</v>
       </c>
       <c r="H4" t="n">
         <v>36950.24401123945</v>
@@ -26441,13 +26441,13 @@
         <v>52302.31338696503</v>
       </c>
       <c r="J4" t="n">
-        <v>52302.31338696504</v>
+        <v>52302.31338696503</v>
       </c>
       <c r="K4" t="n">
         <v>52302.31338696503</v>
       </c>
       <c r="L4" t="n">
-        <v>52302.31338696504</v>
+        <v>52302.31338696503</v>
       </c>
       <c r="M4" t="n">
         <v>36950.24401123945</v>
@@ -26456,10 +26456,10 @@
         <v>36950.24401123945</v>
       </c>
       <c r="O4" t="n">
-        <v>36950.24401123952</v>
+        <v>36950.24401123945</v>
       </c>
       <c r="P4" t="n">
-        <v>36950.24401123953</v>
+        <v>36950.24401123945</v>
       </c>
     </row>
     <row r="5">
@@ -26508,10 +26508,10 @@
         <v>41674.88356206352</v>
       </c>
       <c r="O5" t="n">
-        <v>41674.88356206354</v>
+        <v>41674.88356206352</v>
       </c>
       <c r="P5" t="n">
-        <v>41674.88356206354</v>
+        <v>41674.88356206352</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71531.99814683723</v>
+        <v>71523.19846120769</v>
       </c>
       <c r="C6" t="n">
-        <v>71531.99814683705</v>
+        <v>71523.19846120781</v>
       </c>
       <c r="D6" t="n">
-        <v>71531.99814683717</v>
+        <v>71523.19846120775</v>
       </c>
       <c r="E6" t="n">
-        <v>-347598.1292647113</v>
+        <v>-348223.179699452</v>
       </c>
       <c r="F6" t="n">
-        <v>202431.4511901332</v>
+        <v>201806.4007553925</v>
       </c>
       <c r="G6" t="n">
-        <v>202431.4511901333</v>
+        <v>201806.4007553923</v>
       </c>
       <c r="H6" t="n">
-        <v>202431.4511901332</v>
+        <v>201806.4007553925</v>
       </c>
       <c r="I6" t="n">
-        <v>182257.8057575407</v>
+        <v>181739.7721307316</v>
       </c>
       <c r="J6" t="n">
-        <v>210570.6566901532</v>
+        <v>210052.6230633439</v>
       </c>
       <c r="K6" t="n">
-        <v>210570.6566901533</v>
+        <v>210052.6230633438</v>
       </c>
       <c r="L6" t="n">
-        <v>210570.6566901532</v>
+        <v>210052.6230633438</v>
       </c>
       <c r="M6" t="n">
-        <v>102466.3434060874</v>
+        <v>101841.2929713465</v>
       </c>
       <c r="N6" t="n">
-        <v>202431.4511901332</v>
+        <v>201806.4007553923</v>
       </c>
       <c r="O6" t="n">
-        <v>202431.4511901332</v>
+        <v>201806.4007553924</v>
       </c>
       <c r="P6" t="n">
-        <v>202431.4511901332</v>
+        <v>201806.4007553924</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>495.9762793031346</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="F3" t="n">
         <v>495.9762793031345</v>
@@ -26758,28 +26758,28 @@
         <v>495.9762793031345</v>
       </c>
       <c r="I3" t="n">
-        <v>495.9762793031345</v>
+        <v>495.9762793031346</v>
       </c>
       <c r="J3" t="n">
-        <v>495.9762793031345</v>
+        <v>495.9762793031346</v>
       </c>
       <c r="K3" t="n">
-        <v>495.9762793031345</v>
+        <v>495.9762793031346</v>
       </c>
       <c r="L3" t="n">
-        <v>495.9762793031345</v>
+        <v>495.9762793031346</v>
       </c>
       <c r="M3" t="n">
-        <v>495.9762793031345</v>
+        <v>495.9762793031346</v>
       </c>
       <c r="N3" t="n">
-        <v>495.9762793031345</v>
+        <v>495.9762793031346</v>
       </c>
       <c r="O3" t="n">
-        <v>495.9762793031345</v>
+        <v>495.9762793031346</v>
       </c>
       <c r="P3" t="n">
-        <v>495.9762793031345</v>
+        <v>495.9762793031346</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>507.608563704855</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="F4" t="n">
         <v>507.608563704855</v>
       </c>
       <c r="G4" t="n">
-        <v>507.6085637048551</v>
+        <v>507.608563704855</v>
       </c>
       <c r="H4" t="n">
-        <v>507.6085637048551</v>
+        <v>507.608563704855</v>
       </c>
       <c r="I4" t="n">
         <v>614.0794739850226</v>
@@ -26828,10 +26828,10 @@
         <v>507.608563704855</v>
       </c>
       <c r="O4" t="n">
-        <v>507.6085637048554</v>
+        <v>507.608563704855</v>
       </c>
       <c r="P4" t="n">
-        <v>507.6085637048554</v>
+        <v>507.608563704855</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>495.9762793031346</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.4709102801674</v>
+        <v>106.4709102801671</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>401.1376534246875</v>
+        <v>401.1376534246876</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31773,10 +31773,10 @@
         <v>350.1069139826594</v>
       </c>
       <c r="N11" t="n">
-        <v>355.7720098764083</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O11" t="n">
-        <v>335.9454204198433</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P11" t="n">
         <v>286.7216439563412</v>
@@ -31788,13 +31788,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S11" t="n">
-        <v>45.43541493314646</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T11" t="n">
-        <v>8.728185578490336</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1595099591728673</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31858,13 +31858,13 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P12" t="n">
-        <v>203.7152381915083</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R12" t="n">
-        <v>66.23622839448279</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S12" t="n">
         <v>19.81565606461107</v>
@@ -31873,7 +31873,7 @@
         <v>4.300020761128118</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07018532254289643</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8943834544810623</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H13" t="n">
-        <v>7.951881986204359</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I13" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J13" t="n">
-        <v>63.2329102318111</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K13" t="n">
         <v>103.9110958933452</v>
@@ -31943,13 +31943,13 @@
         <v>74.89241817477331</v>
       </c>
       <c r="R13" t="n">
-        <v>40.21473241693939</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S13" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T13" t="n">
-        <v>3.821456578237265</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U13" t="n">
         <v>0.04878455206260345</v>
@@ -32721,10 +32721,10 @@
         <v>350.1069139826594</v>
       </c>
       <c r="N23" t="n">
-        <v>355.7720098764082</v>
+        <v>355.7720098764083</v>
       </c>
       <c r="O23" t="n">
-        <v>335.9454204198432</v>
+        <v>335.9454204198433</v>
       </c>
       <c r="P23" t="n">
         <v>286.7216439563412</v>
@@ -32736,13 +32736,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S23" t="n">
-        <v>45.43541493314645</v>
+        <v>45.43541493314646</v>
       </c>
       <c r="T23" t="n">
-        <v>8.728185578490335</v>
+        <v>8.728185578490336</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1595099591728672</v>
+        <v>0.1595099591728673</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32806,13 +32806,13 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P24" t="n">
-        <v>203.7152381915082</v>
+        <v>203.7152381915083</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R24" t="n">
-        <v>66.23622839448278</v>
+        <v>66.23622839448279</v>
       </c>
       <c r="S24" t="n">
         <v>19.81565606461107</v>
@@ -32821,7 +32821,7 @@
         <v>4.300020761128118</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07018532254289642</v>
+        <v>0.07018532254289643</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8943834544810622</v>
+        <v>0.8943834544810623</v>
       </c>
       <c r="H25" t="n">
-        <v>7.951881986204358</v>
+        <v>7.951881986204359</v>
       </c>
       <c r="I25" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J25" t="n">
-        <v>63.23291023181109</v>
+        <v>63.2329102318111</v>
       </c>
       <c r="K25" t="n">
         <v>103.9110958933452</v>
@@ -32891,13 +32891,13 @@
         <v>74.89241817477331</v>
       </c>
       <c r="R25" t="n">
-        <v>40.21473241693938</v>
+        <v>40.21473241693939</v>
       </c>
       <c r="S25" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T25" t="n">
-        <v>3.821456578237264</v>
+        <v>3.821456578237265</v>
       </c>
       <c r="U25" t="n">
         <v>0.04878455206260345</v>
@@ -32958,10 +32958,10 @@
         <v>350.1069139826594</v>
       </c>
       <c r="N26" t="n">
-        <v>355.7720098764082</v>
+        <v>355.7720098764083</v>
       </c>
       <c r="O26" t="n">
-        <v>335.9454204198432</v>
+        <v>335.9454204198433</v>
       </c>
       <c r="P26" t="n">
         <v>286.7216439563412</v>
@@ -32973,13 +32973,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S26" t="n">
-        <v>45.43541493314645</v>
+        <v>45.43541493314646</v>
       </c>
       <c r="T26" t="n">
-        <v>8.728185578490335</v>
+        <v>8.728185578490336</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1595099591728672</v>
+        <v>0.1595099591728673</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33043,13 +33043,13 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P27" t="n">
-        <v>203.7152381915082</v>
+        <v>203.7152381915083</v>
       </c>
       <c r="Q27" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R27" t="n">
-        <v>66.23622839448278</v>
+        <v>66.23622839448279</v>
       </c>
       <c r="S27" t="n">
         <v>19.81565606461107</v>
@@ -33058,7 +33058,7 @@
         <v>4.300020761128118</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07018532254289642</v>
+        <v>0.07018532254289643</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8943834544810622</v>
+        <v>0.8943834544810623</v>
       </c>
       <c r="H28" t="n">
-        <v>7.951881986204358</v>
+        <v>7.951881986204359</v>
       </c>
       <c r="I28" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J28" t="n">
-        <v>63.23291023181109</v>
+        <v>63.2329102318111</v>
       </c>
       <c r="K28" t="n">
         <v>103.9110958933452</v>
@@ -33128,13 +33128,13 @@
         <v>74.89241817477331</v>
       </c>
       <c r="R28" t="n">
-        <v>40.21473241693938</v>
+        <v>40.21473241693939</v>
       </c>
       <c r="S28" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T28" t="n">
-        <v>3.821456578237264</v>
+        <v>3.821456578237265</v>
       </c>
       <c r="U28" t="n">
         <v>0.04878455206260345</v>
@@ -33195,10 +33195,10 @@
         <v>350.1069139826594</v>
       </c>
       <c r="N29" t="n">
-        <v>355.7720098764082</v>
+        <v>355.7720098764083</v>
       </c>
       <c r="O29" t="n">
-        <v>335.9454204198432</v>
+        <v>335.9454204198433</v>
       </c>
       <c r="P29" t="n">
         <v>286.7216439563412</v>
@@ -33210,13 +33210,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S29" t="n">
-        <v>45.43541493314645</v>
+        <v>45.43541493314646</v>
       </c>
       <c r="T29" t="n">
-        <v>8.728185578490335</v>
+        <v>8.728185578490336</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1595099591728672</v>
+        <v>0.1595099591728673</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33280,13 +33280,13 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P30" t="n">
-        <v>203.7152381915082</v>
+        <v>203.7152381915083</v>
       </c>
       <c r="Q30" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R30" t="n">
-        <v>66.23622839448278</v>
+        <v>66.23622839448279</v>
       </c>
       <c r="S30" t="n">
         <v>19.81565606461107</v>
@@ -33295,7 +33295,7 @@
         <v>4.300020761128118</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07018532254289642</v>
+        <v>0.07018532254289643</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8943834544810622</v>
+        <v>0.8943834544810623</v>
       </c>
       <c r="H31" t="n">
-        <v>7.951881986204358</v>
+        <v>7.951881986204359</v>
       </c>
       <c r="I31" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J31" t="n">
-        <v>63.23291023181109</v>
+        <v>63.2329102318111</v>
       </c>
       <c r="K31" t="n">
         <v>103.9110958933452</v>
@@ -33365,13 +33365,13 @@
         <v>74.89241817477331</v>
       </c>
       <c r="R31" t="n">
-        <v>40.21473241693938</v>
+        <v>40.21473241693939</v>
       </c>
       <c r="S31" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T31" t="n">
-        <v>3.821456578237264</v>
+        <v>3.821456578237265</v>
       </c>
       <c r="U31" t="n">
         <v>0.04878455206260345</v>
@@ -33432,10 +33432,10 @@
         <v>350.1069139826594</v>
       </c>
       <c r="N32" t="n">
-        <v>355.7720098764082</v>
+        <v>355.7720098764083</v>
       </c>
       <c r="O32" t="n">
-        <v>335.9454204198432</v>
+        <v>335.9454204198433</v>
       </c>
       <c r="P32" t="n">
         <v>286.7216439563412</v>
@@ -33447,13 +33447,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S32" t="n">
-        <v>45.43541493314645</v>
+        <v>45.43541493314646</v>
       </c>
       <c r="T32" t="n">
-        <v>8.728185578490335</v>
+        <v>8.728185578490336</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1595099591728672</v>
+        <v>0.1595099591728673</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33517,13 +33517,13 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P33" t="n">
-        <v>203.7152381915082</v>
+        <v>203.7152381915083</v>
       </c>
       <c r="Q33" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R33" t="n">
-        <v>66.23622839448278</v>
+        <v>66.23622839448279</v>
       </c>
       <c r="S33" t="n">
         <v>19.81565606461107</v>
@@ -33532,7 +33532,7 @@
         <v>4.300020761128118</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07018532254289642</v>
+        <v>0.07018532254289643</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8943834544810622</v>
+        <v>0.8943834544810623</v>
       </c>
       <c r="H34" t="n">
-        <v>7.951881986204358</v>
+        <v>7.951881986204359</v>
       </c>
       <c r="I34" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J34" t="n">
-        <v>63.23291023181109</v>
+        <v>63.2329102318111</v>
       </c>
       <c r="K34" t="n">
         <v>103.9110958933452</v>
@@ -33602,13 +33602,13 @@
         <v>74.89241817477331</v>
       </c>
       <c r="R34" t="n">
-        <v>40.21473241693938</v>
+        <v>40.21473241693939</v>
       </c>
       <c r="S34" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T34" t="n">
-        <v>3.821456578237264</v>
+        <v>3.821456578237265</v>
       </c>
       <c r="U34" t="n">
         <v>0.04878455206260345</v>
@@ -33669,10 +33669,10 @@
         <v>350.1069139826594</v>
       </c>
       <c r="N35" t="n">
-        <v>355.7720098764082</v>
+        <v>355.7720098764083</v>
       </c>
       <c r="O35" t="n">
-        <v>335.9454204198432</v>
+        <v>335.9454204198433</v>
       </c>
       <c r="P35" t="n">
         <v>286.7216439563412</v>
@@ -33684,13 +33684,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S35" t="n">
-        <v>45.43541493314645</v>
+        <v>45.43541493314646</v>
       </c>
       <c r="T35" t="n">
-        <v>8.728185578490335</v>
+        <v>8.728185578490336</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1595099591728672</v>
+        <v>0.1595099591728673</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33754,13 +33754,13 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P36" t="n">
-        <v>203.7152381915082</v>
+        <v>203.7152381915083</v>
       </c>
       <c r="Q36" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R36" t="n">
-        <v>66.23622839448278</v>
+        <v>66.23622839448279</v>
       </c>
       <c r="S36" t="n">
         <v>19.81565606461107</v>
@@ -33769,7 +33769,7 @@
         <v>4.300020761128118</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07018532254289642</v>
+        <v>0.07018532254289643</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8943834544810622</v>
+        <v>0.8943834544810623</v>
       </c>
       <c r="H37" t="n">
-        <v>7.951881986204358</v>
+        <v>7.951881986204359</v>
       </c>
       <c r="I37" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J37" t="n">
-        <v>63.23291023181109</v>
+        <v>63.2329102318111</v>
       </c>
       <c r="K37" t="n">
         <v>103.9110958933452</v>
@@ -33839,13 +33839,13 @@
         <v>74.89241817477331</v>
       </c>
       <c r="R37" t="n">
-        <v>40.21473241693938</v>
+        <v>40.21473241693939</v>
       </c>
       <c r="S37" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T37" t="n">
-        <v>3.821456578237264</v>
+        <v>3.821456578237265</v>
       </c>
       <c r="U37" t="n">
         <v>0.04878455206260345</v>
@@ -33906,10 +33906,10 @@
         <v>350.1069139826594</v>
       </c>
       <c r="N38" t="n">
-        <v>355.7720098764082</v>
+        <v>355.7720098764083</v>
       </c>
       <c r="O38" t="n">
-        <v>335.9454204198432</v>
+        <v>335.9454204198433</v>
       </c>
       <c r="P38" t="n">
         <v>286.7216439563412</v>
@@ -33921,13 +33921,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S38" t="n">
-        <v>45.43541493314645</v>
+        <v>45.43541493314646</v>
       </c>
       <c r="T38" t="n">
-        <v>8.728185578490335</v>
+        <v>8.728185578490336</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1595099591728672</v>
+        <v>0.1595099591728673</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33991,13 +33991,13 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P39" t="n">
-        <v>203.7152381915082</v>
+        <v>203.7152381915083</v>
       </c>
       <c r="Q39" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R39" t="n">
-        <v>66.23622839448278</v>
+        <v>66.23622839448279</v>
       </c>
       <c r="S39" t="n">
         <v>19.81565606461107</v>
@@ -34006,7 +34006,7 @@
         <v>4.300020761128118</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07018532254289642</v>
+        <v>0.07018532254289643</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8943834544810622</v>
+        <v>0.8943834544810623</v>
       </c>
       <c r="H40" t="n">
-        <v>7.951881986204358</v>
+        <v>7.951881986204359</v>
       </c>
       <c r="I40" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J40" t="n">
-        <v>63.23291023181109</v>
+        <v>63.2329102318111</v>
       </c>
       <c r="K40" t="n">
         <v>103.9110958933452</v>
@@ -34076,13 +34076,13 @@
         <v>74.89241817477331</v>
       </c>
       <c r="R40" t="n">
-        <v>40.21473241693938</v>
+        <v>40.21473241693939</v>
       </c>
       <c r="S40" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T40" t="n">
-        <v>3.821456578237264</v>
+        <v>3.821456578237265</v>
       </c>
       <c r="U40" t="n">
         <v>0.04878455206260345</v>
@@ -34143,10 +34143,10 @@
         <v>350.1069139826594</v>
       </c>
       <c r="N41" t="n">
-        <v>355.7720098764082</v>
+        <v>355.7720098764083</v>
       </c>
       <c r="O41" t="n">
-        <v>335.9454204198432</v>
+        <v>335.9454204198433</v>
       </c>
       <c r="P41" t="n">
         <v>286.7216439563412</v>
@@ -34158,13 +34158,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S41" t="n">
-        <v>45.43541493314645</v>
+        <v>45.43541493314646</v>
       </c>
       <c r="T41" t="n">
-        <v>8.728185578490335</v>
+        <v>8.728185578490336</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1595099591728672</v>
+        <v>0.1595099591728673</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34228,13 +34228,13 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P42" t="n">
-        <v>203.7152381915082</v>
+        <v>203.7152381915083</v>
       </c>
       <c r="Q42" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R42" t="n">
-        <v>66.23622839448278</v>
+        <v>66.23622839448279</v>
       </c>
       <c r="S42" t="n">
         <v>19.81565606461107</v>
@@ -34243,7 +34243,7 @@
         <v>4.300020761128118</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07018532254289642</v>
+        <v>0.07018532254289643</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8943834544810622</v>
+        <v>0.8943834544810623</v>
       </c>
       <c r="H43" t="n">
-        <v>7.951881986204358</v>
+        <v>7.951881986204359</v>
       </c>
       <c r="I43" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J43" t="n">
-        <v>63.23291023181109</v>
+        <v>63.2329102318111</v>
       </c>
       <c r="K43" t="n">
         <v>103.9110958933452</v>
@@ -34313,13 +34313,13 @@
         <v>74.89241817477331</v>
       </c>
       <c r="R43" t="n">
-        <v>40.21473241693938</v>
+        <v>40.21473241693939</v>
       </c>
       <c r="S43" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T43" t="n">
-        <v>3.821456578237264</v>
+        <v>3.821456578237265</v>
       </c>
       <c r="U43" t="n">
         <v>0.04878455206260345</v>
@@ -34380,10 +34380,10 @@
         <v>350.1069139826594</v>
       </c>
       <c r="N44" t="n">
-        <v>355.7720098764082</v>
+        <v>355.7720098764083</v>
       </c>
       <c r="O44" t="n">
-        <v>335.9454204198432</v>
+        <v>335.9454204198433</v>
       </c>
       <c r="P44" t="n">
         <v>286.7216439563412</v>
@@ -34395,13 +34395,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S44" t="n">
-        <v>45.43541493314645</v>
+        <v>45.43541493314646</v>
       </c>
       <c r="T44" t="n">
-        <v>8.728185578490335</v>
+        <v>8.728185578490336</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1595099591728672</v>
+        <v>0.1595099591728673</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34465,13 +34465,13 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P45" t="n">
-        <v>203.7152381915082</v>
+        <v>203.7152381915083</v>
       </c>
       <c r="Q45" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R45" t="n">
-        <v>66.23622839448278</v>
+        <v>66.23622839448279</v>
       </c>
       <c r="S45" t="n">
         <v>19.81565606461107</v>
@@ -34480,7 +34480,7 @@
         <v>4.300020761128118</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07018532254289642</v>
+        <v>0.07018532254289643</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8943834544810622</v>
+        <v>0.8943834544810623</v>
       </c>
       <c r="H46" t="n">
-        <v>7.951881986204358</v>
+        <v>7.951881986204359</v>
       </c>
       <c r="I46" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J46" t="n">
-        <v>63.23291023181109</v>
+        <v>63.2329102318111</v>
       </c>
       <c r="K46" t="n">
         <v>103.9110958933452</v>
@@ -34550,13 +34550,13 @@
         <v>74.89241817477331</v>
       </c>
       <c r="R46" t="n">
-        <v>40.21473241693938</v>
+        <v>40.21473241693939</v>
       </c>
       <c r="S46" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T46" t="n">
-        <v>3.821456578237264</v>
+        <v>3.821456578237265</v>
       </c>
       <c r="U46" t="n">
         <v>0.04878455206260345</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>95.904013633544</v>
+        <v>379.2693742971393</v>
       </c>
       <c r="K11" t="n">
         <v>164.4919224409783</v>
@@ -35421,19 +35421,19 @@
         <v>256.8166895256139</v>
       </c>
       <c r="N11" t="n">
-        <v>262.859719119789</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O11" t="n">
-        <v>339.8631740203189</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P11" t="n">
-        <v>507.608563704855</v>
+        <v>193.0722806754571</v>
       </c>
       <c r="Q11" t="n">
         <v>125.2822093962102</v>
       </c>
       <c r="R11" t="n">
-        <v>37.93557559643439</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.1892133314869</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J12" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K12" t="n">
-        <v>154.4753919287572</v>
+        <v>154.4753919287575</v>
       </c>
       <c r="L12" t="n">
         <v>175.5204356882234</v>
@@ -35512,7 +35512,7 @@
         <v>489.5564889747692</v>
       </c>
       <c r="R12" t="n">
-        <v>96.09432876077562</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.79976454885568</v>
+        <v>11.79976454885567</v>
       </c>
       <c r="K13" t="n">
-        <v>260.0245582390401</v>
+        <v>51.66072633427837</v>
       </c>
       <c r="L13" t="n">
         <v>395.4927509205154</v>
       </c>
       <c r="M13" t="n">
-        <v>204.0101991211742</v>
+        <v>432.3845874657029</v>
       </c>
       <c r="N13" t="n">
         <v>420.5405985836039</v>
@@ -35585,7 +35585,7 @@
         <v>388.5994705847659</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9245833892493</v>
+        <v>295.9140269494826</v>
       </c>
       <c r="Q13" t="n">
         <v>13.53289251484775</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>379.2693742971393</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K14" t="n">
         <v>164.4919224409783</v>
@@ -35667,10 +35667,10 @@
         <v>193.0722806754571</v>
       </c>
       <c r="Q14" t="n">
-        <v>125.2822093962102</v>
+        <v>206.8494288359792</v>
       </c>
       <c r="R14" t="n">
-        <v>166.2140271884961</v>
+        <v>37.93557559643438</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>295.5512643775801</v>
       </c>
       <c r="K15" t="n">
-        <v>507.608563704855</v>
+        <v>116.4417518861724</v>
       </c>
       <c r="L15" t="n">
         <v>175.5204356882234</v>
       </c>
       <c r="M15" t="n">
-        <v>212.7427884817909</v>
+        <v>250.776428524376</v>
       </c>
       <c r="N15" t="n">
         <v>224.2679027043309</v>
@@ -35743,13 +35743,13 @@
         <v>196.0714004656334</v>
       </c>
       <c r="P15" t="n">
-        <v>295.2515965446826</v>
+        <v>149.4556031887045</v>
       </c>
       <c r="Q15" t="n">
-        <v>79.48562331439174</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R15" t="n">
-        <v>7.236029289077372</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.79976454885567</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K16" t="n">
-        <v>167.633526730149</v>
+        <v>260.0245582390401</v>
       </c>
       <c r="L16" t="n">
         <v>395.4927509205154</v>
       </c>
       <c r="M16" t="n">
-        <v>432.3845874657029</v>
+        <v>346.1909845862371</v>
       </c>
       <c r="N16" t="n">
-        <v>420.5405985836039</v>
+        <v>85.15241530321445</v>
       </c>
       <c r="O16" t="n">
         <v>388.5994705847659</v>
       </c>
       <c r="P16" t="n">
-        <v>52.3917718002411</v>
+        <v>315.9245833892493</v>
       </c>
       <c r="Q16" t="n">
         <v>141.0823472682186</v>
@@ -35901,13 +35901,13 @@
         <v>242.7556447940601</v>
       </c>
       <c r="P17" t="n">
-        <v>222.3897386224691</v>
+        <v>193.0722806754571</v>
       </c>
       <c r="Q17" t="n">
-        <v>507.6085637048551</v>
+        <v>408.6475700598054</v>
       </c>
       <c r="R17" t="n">
-        <v>37.93557559643438</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>16.18921333148689</v>
       </c>
       <c r="J18" t="n">
-        <v>49.42156339310208</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K18" t="n">
-        <v>157.3752643683021</v>
+        <v>154.4753919287575</v>
       </c>
       <c r="L18" t="n">
-        <v>507.6085637048551</v>
+        <v>175.5204356882234</v>
       </c>
       <c r="M18" t="n">
         <v>212.7427884817909</v>
@@ -35986,7 +35986,7 @@
         <v>489.5564889747692</v>
       </c>
       <c r="R18" t="n">
-        <v>7.236029289077372</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,13 +36047,13 @@
         <v>260.0245582390401</v>
       </c>
       <c r="L19" t="n">
-        <v>374.9570911030058</v>
+        <v>395.4927509205154</v>
       </c>
       <c r="M19" t="n">
-        <v>432.3845874657029</v>
+        <v>83.93372937046499</v>
       </c>
       <c r="N19" t="n">
-        <v>85.15241530321445</v>
+        <v>420.5405985836039</v>
       </c>
       <c r="O19" t="n">
         <v>388.5994705847659</v>
@@ -36062,7 +36062,7 @@
         <v>315.9245833892493</v>
       </c>
       <c r="Q19" t="n">
-        <v>141.0823472682186</v>
+        <v>133.6093622655571</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>95.904013633544</v>
+        <v>379.2693742971393</v>
       </c>
       <c r="K20" t="n">
         <v>164.4919224409783</v>
@@ -36138,7 +36138,7 @@
         <v>242.7556447940601</v>
       </c>
       <c r="P20" t="n">
-        <v>476.4376413390522</v>
+        <v>193.0722806754571</v>
       </c>
       <c r="Q20" t="n">
         <v>125.2822093962102</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J21" t="n">
-        <v>49.42156339310208</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K21" t="n">
-        <v>309.3205329145124</v>
+        <v>154.4753919287575</v>
       </c>
       <c r="L21" t="n">
         <v>175.5204356882234</v>
       </c>
       <c r="M21" t="n">
-        <v>507.6085637048551</v>
+        <v>212.7427884817909</v>
       </c>
       <c r="N21" t="n">
         <v>224.2679027043309</v>
       </c>
       <c r="O21" t="n">
-        <v>507.6085637048551</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P21" t="n">
         <v>149.4556031887045</v>
       </c>
       <c r="Q21" t="n">
-        <v>79.48562331439174</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R21" t="n">
-        <v>7.236029289077372</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.79976454885567</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K22" t="n">
         <v>260.0245582390401</v>
@@ -36290,7 +36290,7 @@
         <v>83.93372937046499</v>
       </c>
       <c r="N22" t="n">
-        <v>413.0676135809427</v>
+        <v>347.4096705189865</v>
       </c>
       <c r="O22" t="n">
         <v>388.5994705847659</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>95.904013633544</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K23" t="n">
-        <v>164.4919224409783</v>
+        <v>539.3624764485405</v>
       </c>
       <c r="L23" t="n">
         <v>219.1629504643086</v>
       </c>
       <c r="M23" t="n">
-        <v>614.0794739850226</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N23" t="n">
-        <v>610.5440814838304</v>
+        <v>262.859719119789</v>
       </c>
       <c r="O23" t="n">
-        <v>242.7556447940601</v>
+        <v>242.7556447940602</v>
       </c>
       <c r="P23" t="n">
         <v>193.0722806754571</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>16.1892133314869</v>
       </c>
       <c r="J24" t="n">
-        <v>49.42156339310208</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K24" t="n">
         <v>116.4417518861724</v>
@@ -36445,22 +36445,22 @@
         <v>175.5204356882234</v>
       </c>
       <c r="M24" t="n">
-        <v>614.0794739850226</v>
+        <v>250.7764285243751</v>
       </c>
       <c r="N24" t="n">
         <v>224.2679027043309</v>
       </c>
       <c r="O24" t="n">
-        <v>594.0164344530272</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P24" t="n">
         <v>149.4556031887045</v>
       </c>
       <c r="Q24" t="n">
-        <v>79.48562331439174</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R24" t="n">
-        <v>7.236029289077372</v>
+        <v>96.09432876077562</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>77.45770761081161</v>
+        <v>77.45770761081162</v>
       </c>
       <c r="K25" t="n">
         <v>260.0245582390401</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>425.980606449432</v>
+        <v>386.4122986888601</v>
       </c>
       <c r="K26" t="n">
         <v>164.4919224409783</v>
@@ -36606,16 +36606,16 @@
         <v>256.8166895256139</v>
       </c>
       <c r="N26" t="n">
-        <v>262.8597191197889</v>
+        <v>262.859719119789</v>
       </c>
       <c r="O26" t="n">
-        <v>242.7556447940601</v>
+        <v>242.7556447940602</v>
       </c>
       <c r="P26" t="n">
         <v>193.0722806754571</v>
       </c>
       <c r="Q26" t="n">
-        <v>500.1527634037727</v>
+        <v>539.7210711643442</v>
       </c>
       <c r="R26" t="n">
         <v>166.2140271884961</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>16.1892133314869</v>
       </c>
       <c r="J27" t="n">
-        <v>49.42156339310208</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K27" t="n">
         <v>116.4417518861724</v>
       </c>
       <c r="L27" t="n">
-        <v>614.0794739850226</v>
+        <v>175.5204356882234</v>
       </c>
       <c r="M27" t="n">
         <v>212.7427884817909</v>
@@ -36691,13 +36691,13 @@
         <v>196.0714004656334</v>
       </c>
       <c r="P27" t="n">
-        <v>421.319984910832</v>
+        <v>187.4892432312888</v>
       </c>
       <c r="Q27" t="n">
-        <v>79.48562331439174</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R27" t="n">
-        <v>96.0943287607756</v>
+        <v>96.09432876077562</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>77.45770761081161</v>
+        <v>77.45770761081162</v>
       </c>
       <c r="K28" t="n">
         <v>260.0245582390401</v>
@@ -36761,7 +36761,7 @@
         <v>395.4927509205154</v>
       </c>
       <c r="M28" t="n">
-        <v>432.3845874657029</v>
+        <v>432.3845874657027</v>
       </c>
       <c r="N28" t="n">
         <v>420.5405985836039</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.798589548528</v>
+        <v>95.904013633544</v>
       </c>
       <c r="K29" t="n">
         <v>164.4919224409783</v>
@@ -36840,22 +36840,22 @@
         <v>219.1629504643086</v>
       </c>
       <c r="M29" t="n">
-        <v>256.8166895256139</v>
+        <v>614.0794739850226</v>
       </c>
       <c r="N29" t="n">
-        <v>262.8597191197889</v>
+        <v>262.859719119789</v>
       </c>
       <c r="O29" t="n">
-        <v>614.0794739850226</v>
+        <v>242.7556447940602</v>
       </c>
       <c r="P29" t="n">
-        <v>614.0794739850226</v>
+        <v>193.0722806754571</v>
       </c>
       <c r="Q29" t="n">
-        <v>125.2822093962102</v>
+        <v>472.9665717602518</v>
       </c>
       <c r="R29" t="n">
-        <v>37.93557559643438</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>16.1892133314869</v>
       </c>
       <c r="J30" t="n">
         <v>295.5512643775801</v>
@@ -36919,22 +36919,22 @@
         <v>175.5204356882234</v>
       </c>
       <c r="M30" t="n">
-        <v>614.0794739850226</v>
+        <v>212.7427884817909</v>
       </c>
       <c r="N30" t="n">
-        <v>376.0832357072464</v>
+        <v>224.2679027043309</v>
       </c>
       <c r="O30" t="n">
         <v>196.0714004656334</v>
       </c>
       <c r="P30" t="n">
-        <v>149.4556031887045</v>
+        <v>187.4892432312888</v>
       </c>
       <c r="Q30" t="n">
-        <v>79.48562331439174</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R30" t="n">
-        <v>7.236029289077372</v>
+        <v>96.09432876077562</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>77.45770761081161</v>
+        <v>77.45770761081151</v>
       </c>
       <c r="K31" t="n">
         <v>260.0245582390401</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>95.904013633544</v>
+        <v>122.279276045603</v>
       </c>
       <c r="K32" t="n">
-        <v>231.4771681448138</v>
+        <v>614.0794739850226</v>
       </c>
       <c r="L32" t="n">
+        <v>219.1629504643086</v>
+      </c>
+      <c r="M32" t="n">
         <v>614.0794739850226</v>
       </c>
-      <c r="M32" t="n">
-        <v>256.8166895256139</v>
-      </c>
       <c r="N32" t="n">
-        <v>262.8597191197889</v>
+        <v>262.859719119789</v>
       </c>
       <c r="O32" t="n">
-        <v>614.0794739850226</v>
+        <v>242.7556447940602</v>
       </c>
       <c r="P32" t="n">
         <v>193.0722806754571</v>
@@ -37092,7 +37092,7 @@
         <v>125.2822093962102</v>
       </c>
       <c r="R32" t="n">
-        <v>37.93557559643438</v>
+        <v>37.93557559643439</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>295.5512643775801</v>
       </c>
       <c r="K33" t="n">
-        <v>116.4417518861724</v>
+        <v>170.6646052602434</v>
       </c>
       <c r="L33" t="n">
         <v>175.5204356882234</v>
       </c>
       <c r="M33" t="n">
-        <v>614.0794739850226</v>
+        <v>212.7427884817909</v>
       </c>
       <c r="N33" t="n">
         <v>224.2679027043309</v>
@@ -37168,10 +37168,10 @@
         <v>149.4556031887045</v>
       </c>
       <c r="Q33" t="n">
-        <v>231.3009563173074</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R33" t="n">
-        <v>7.236029289077372</v>
+        <v>96.09432876077562</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.45770761081161</v>
+        <v>77.45770761081162</v>
       </c>
       <c r="K34" t="n">
         <v>260.0245582390401</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>425.980606449432</v>
+        <v>379.2693742971391</v>
       </c>
       <c r="K35" t="n">
         <v>164.4919224409783</v>
@@ -37317,10 +37317,10 @@
         <v>256.8166895256139</v>
       </c>
       <c r="N35" t="n">
-        <v>262.8597191197889</v>
+        <v>262.859719119789</v>
       </c>
       <c r="O35" t="n">
-        <v>242.7556447940601</v>
+        <v>242.7556447940602</v>
       </c>
       <c r="P35" t="n">
         <v>193.0722806754571</v>
@@ -37329,7 +37329,7 @@
         <v>125.2822093962102</v>
       </c>
       <c r="R35" t="n">
-        <v>119.5027950362033</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>16.1892133314869</v>
       </c>
       <c r="J36" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K36" t="n">
-        <v>507.608563704855</v>
+        <v>243.3336914004555</v>
       </c>
       <c r="L36" t="n">
         <v>175.5204356882234</v>
@@ -37402,13 +37402,13 @@
         <v>196.0714004656334</v>
       </c>
       <c r="P36" t="n">
-        <v>222.5825104044712</v>
+        <v>149.4556031887045</v>
       </c>
       <c r="Q36" t="n">
-        <v>79.48562331439174</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R36" t="n">
-        <v>96.0943287607756</v>
+        <v>7.236029289077386</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.79976454885567</v>
+        <v>77.45770761081162</v>
       </c>
       <c r="K37" t="n">
         <v>260.0245582390401</v>
@@ -37481,7 +37481,7 @@
         <v>388.5994705847659</v>
       </c>
       <c r="P37" t="n">
-        <v>277.1513577004641</v>
+        <v>211.4934146385082</v>
       </c>
       <c r="Q37" t="n">
         <v>141.0823472682186</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>425.980606449432</v>
+        <v>95.904013633544</v>
       </c>
       <c r="K38" t="n">
         <v>164.4919224409783</v>
@@ -37554,19 +37554,19 @@
         <v>256.8166895256139</v>
       </c>
       <c r="N38" t="n">
-        <v>262.8597191197889</v>
+        <v>262.859719119789</v>
       </c>
       <c r="O38" t="n">
-        <v>242.7556447940601</v>
+        <v>242.7556447940602</v>
       </c>
       <c r="P38" t="n">
-        <v>193.0722806754571</v>
+        <v>507.608563704855</v>
       </c>
       <c r="Q38" t="n">
         <v>125.2822093962102</v>
       </c>
       <c r="R38" t="n">
-        <v>119.5027950362033</v>
+        <v>135.0431048226931</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>295.5512643775801</v>
       </c>
       <c r="K39" t="n">
-        <v>507.608563704855</v>
+        <v>259.5229047319424</v>
       </c>
       <c r="L39" t="n">
         <v>175.5204356882234</v>
@@ -37639,13 +37639,13 @@
         <v>196.0714004656334</v>
       </c>
       <c r="P39" t="n">
-        <v>222.5825104044712</v>
+        <v>149.4556031887045</v>
       </c>
       <c r="Q39" t="n">
-        <v>79.48562331439174</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R39" t="n">
-        <v>96.0943287607756</v>
+        <v>7.236029289077386</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.79976454885567</v>
+        <v>77.45770761081162</v>
       </c>
       <c r="K40" t="n">
-        <v>260.0245582390401</v>
+        <v>101.9755836681931</v>
       </c>
       <c r="L40" t="n">
         <v>395.4927509205154</v>
@@ -37721,7 +37721,7 @@
         <v>52.3917718002411</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.69131575932732</v>
+        <v>141.0823472682186</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>95.904013633544</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K41" t="n">
-        <v>447.857283104575</v>
+        <v>164.4919224409783</v>
       </c>
       <c r="L41" t="n">
         <v>219.1629504643086</v>
@@ -37791,19 +37791,19 @@
         <v>256.8166895256139</v>
       </c>
       <c r="N41" t="n">
-        <v>262.8597191197889</v>
+        <v>262.859719119789</v>
       </c>
       <c r="O41" t="n">
-        <v>242.7556447940601</v>
+        <v>242.7556447940602</v>
       </c>
       <c r="P41" t="n">
         <v>193.0722806754571</v>
       </c>
       <c r="Q41" t="n">
-        <v>125.2822093962102</v>
+        <v>206.8494288359792</v>
       </c>
       <c r="R41" t="n">
-        <v>166.2140271884961</v>
+        <v>37.93557559643439</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.18921333148689</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>295.5512643775801</v>
@@ -37876,13 +37876,13 @@
         <v>196.0714004656334</v>
       </c>
       <c r="P42" t="n">
-        <v>507.6085637048554</v>
+        <v>203.6784565627765</v>
       </c>
       <c r="Q42" t="n">
-        <v>169.4371685012046</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R42" t="n">
-        <v>96.0943287607756</v>
+        <v>96.09432876077562</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>77.45770761081161</v>
+        <v>77.45770761081162</v>
       </c>
       <c r="K43" t="n">
-        <v>260.0245582390401</v>
+        <v>101.9755836681931</v>
       </c>
       <c r="L43" t="n">
         <v>395.4927509205154</v>
@@ -37952,10 +37952,10 @@
         <v>420.5405985836039</v>
       </c>
       <c r="O43" t="n">
-        <v>70.3421378385633</v>
+        <v>388.5994705847659</v>
       </c>
       <c r="P43" t="n">
-        <v>212.6001299755979</v>
+        <v>52.3917718002411</v>
       </c>
       <c r="Q43" t="n">
         <v>141.0823472682186</v>
@@ -38019,7 +38019,7 @@
         <v>95.904013633544</v>
       </c>
       <c r="K44" t="n">
-        <v>507.6085637048554</v>
+        <v>164.4919224409783</v>
       </c>
       <c r="L44" t="n">
         <v>219.1629504643086</v>
@@ -38028,19 +38028,19 @@
         <v>256.8166895256139</v>
       </c>
       <c r="N44" t="n">
-        <v>262.8597191197889</v>
+        <v>262.859719119789</v>
       </c>
       <c r="O44" t="n">
-        <v>311.2828157858415</v>
+        <v>242.7556447940602</v>
       </c>
       <c r="P44" t="n">
-        <v>193.0722806754571</v>
+        <v>222.3897386224689</v>
       </c>
       <c r="Q44" t="n">
-        <v>125.2822093962102</v>
+        <v>507.608563704855</v>
       </c>
       <c r="R44" t="n">
-        <v>37.93557559643438</v>
+        <v>37.93557559643439</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.18921333148689</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K45" t="n">
-        <v>281.205596588612</v>
+        <v>116.4417518861724</v>
       </c>
       <c r="L45" t="n">
         <v>175.5204356882234</v>
@@ -38107,19 +38107,19 @@
         <v>212.7427884817909</v>
       </c>
       <c r="N45" t="n">
-        <v>507.6085637048554</v>
+        <v>224.2679027043309</v>
       </c>
       <c r="O45" t="n">
         <v>196.0714004656334</v>
       </c>
       <c r="P45" t="n">
-        <v>149.4556031887045</v>
+        <v>203.6784565627765</v>
       </c>
       <c r="Q45" t="n">
-        <v>79.48562331439174</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R45" t="n">
-        <v>96.0943287607756</v>
+        <v>96.09432876077562</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>77.45770761081161</v>
+        <v>77.45770761081162</v>
       </c>
       <c r="K46" t="n">
-        <v>260.0245582390401</v>
+        <v>101.9755836681931</v>
       </c>
       <c r="L46" t="n">
         <v>395.4927509205154</v>
@@ -38189,7 +38189,7 @@
         <v>420.5405985836039</v>
       </c>
       <c r="O46" t="n">
-        <v>230.5504960139202</v>
+        <v>388.5994705847659</v>
       </c>
       <c r="P46" t="n">
         <v>52.3917718002411</v>
